--- a/ToM/compVsMimic_Etude/EtudeFinale/calcul_TourParoles.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/calcul_TourParoles.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="tourParole" sheetId="1" r:id="rId1"/>
+    <sheet name="PowBob" sheetId="2" r:id="rId2"/>
+    <sheet name="powArthur" sheetId="4" r:id="rId3"/>
+    <sheet name="powKevin" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +31,25 @@
     <t>kevin</t>
   </si>
   <si>
-    <t>moyenne</t>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Arthur</t>
   </si>
 </sst>
 </file>
@@ -74,10 +93,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,37 +1423,6 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <f>AVERAGE(B2:B68)</f>
-        <v>16.611940298507463</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ref="C69:D69" si="0">AVERAGE(C2:C68)</f>
-        <v>19.940298507462686</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="0"/>
-        <v>15.134328358208956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <f>_xlfn.STDEV.S(B2:B68)</f>
-        <v>7.3792403811261185</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:D70" si="1">_xlfn.STDEV.S(C2:C68)</f>
-        <v>6.8752533771819859</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>5.6000419976457083</v>
-      </c>
-    </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
@@ -1407,24 +1440,9833 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:Q23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3</v>
+      </c>
+      <c r="H10" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="14">
+        <v>4</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4</v>
+      </c>
+      <c r="H17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+      <c r="H19" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4</v>
+      </c>
+      <c r="G22" s="14">
+        <v>4</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2</v>
+      </c>
+      <c r="H24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>3</v>
+      </c>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
+      <c r="H25" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>5</v>
+      </c>
+      <c r="G26" s="14">
+        <v>4</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14">
+        <v>5</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="14">
+        <v>4</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14">
+        <v>2</v>
+      </c>
+      <c r="H31" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>2</v>
+      </c>
+      <c r="F32" s="11">
+        <v>5</v>
+      </c>
+      <c r="G32" s="14">
+        <v>4</v>
+      </c>
+      <c r="H32" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
+        <v>4</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="10">
+        <v>4</v>
+      </c>
+      <c r="F34" s="11">
+        <v>4</v>
+      </c>
+      <c r="G34" s="14">
+        <v>2</v>
+      </c>
+      <c r="H34" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+      <c r="F35" s="11">
+        <v>3</v>
+      </c>
+      <c r="G35" s="14">
+        <v>3</v>
+      </c>
+      <c r="H35" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14">
+        <v>3</v>
+      </c>
+      <c r="H36" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <v>5</v>
+      </c>
+      <c r="G37" s="14">
+        <v>4</v>
+      </c>
+      <c r="H37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11">
+        <v>5</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="11">
+        <v>3</v>
+      </c>
+      <c r="G39" s="14">
+        <v>2</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11">
+        <v>4</v>
+      </c>
+      <c r="G41" s="14">
+        <v>4</v>
+      </c>
+      <c r="H41" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2</v>
+      </c>
+      <c r="F42" s="11">
+        <v>3</v>
+      </c>
+      <c r="G42" s="14">
+        <v>2</v>
+      </c>
+      <c r="H42" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2</v>
+      </c>
+      <c r="G43" s="14">
+        <v>5</v>
+      </c>
+      <c r="H43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2</v>
+      </c>
+      <c r="G44" s="14">
+        <v>4</v>
+      </c>
+      <c r="H44" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14">
+        <v>3</v>
+      </c>
+      <c r="H45" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10">
+        <v>4</v>
+      </c>
+      <c r="F46" s="11">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14">
+        <v>3</v>
+      </c>
+      <c r="H46" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10">
+        <v>2</v>
+      </c>
+      <c r="F47" s="11">
+        <v>4</v>
+      </c>
+      <c r="G47" s="14">
+        <v>4</v>
+      </c>
+      <c r="H47" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2</v>
+      </c>
+      <c r="G48" s="14">
+        <v>3</v>
+      </c>
+      <c r="H48" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>3</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7">
+        <v>4</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2</v>
+      </c>
+      <c r="F49" s="11">
+        <v>4</v>
+      </c>
+      <c r="G49" s="14">
+        <v>2</v>
+      </c>
+      <c r="H49" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2</v>
+      </c>
+      <c r="F50" s="11">
+        <v>4</v>
+      </c>
+      <c r="G50" s="14">
+        <v>2</v>
+      </c>
+      <c r="H50" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10">
+        <v>3</v>
+      </c>
+      <c r="F51" s="11">
+        <v>4</v>
+      </c>
+      <c r="G51" s="14">
+        <v>3</v>
+      </c>
+      <c r="H51" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11">
+        <v>2</v>
+      </c>
+      <c r="G52" s="14">
+        <v>4</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10">
+        <v>2</v>
+      </c>
+      <c r="F53" s="11">
+        <v>2</v>
+      </c>
+      <c r="G53" s="14">
+        <v>4</v>
+      </c>
+      <c r="H53" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>2</v>
+      </c>
+      <c r="F54" s="11">
+        <v>5</v>
+      </c>
+      <c r="G54" s="14">
+        <v>2</v>
+      </c>
+      <c r="H54" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7">
+        <v>5</v>
+      </c>
+      <c r="E55" s="10">
+        <v>2</v>
+      </c>
+      <c r="F55" s="11">
+        <v>5</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4</v>
+      </c>
+      <c r="C56" s="6">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2</v>
+      </c>
+      <c r="E56" s="10">
+        <v>2</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2</v>
+      </c>
+      <c r="G56" s="14">
+        <v>4</v>
+      </c>
+      <c r="H56" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2</v>
+      </c>
+      <c r="F57" s="11">
+        <v>4</v>
+      </c>
+      <c r="G57" s="14">
+        <v>3</v>
+      </c>
+      <c r="H57" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <v>5</v>
+      </c>
+      <c r="G58" s="14">
+        <v>4</v>
+      </c>
+      <c r="H58" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>3</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7">
+        <v>4</v>
+      </c>
+      <c r="E59" s="10">
+        <v>2</v>
+      </c>
+      <c r="F59" s="11">
+        <v>3</v>
+      </c>
+      <c r="G59" s="14">
+        <v>5</v>
+      </c>
+      <c r="H59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4</v>
+      </c>
+      <c r="C60" s="6">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
+        <v>2</v>
+      </c>
+      <c r="F60" s="11">
+        <v>4</v>
+      </c>
+      <c r="G60" s="14">
+        <v>2</v>
+      </c>
+      <c r="H60" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10">
+        <v>2</v>
+      </c>
+      <c r="F61" s="11">
+        <v>2</v>
+      </c>
+      <c r="G61" s="14">
+        <v>3</v>
+      </c>
+      <c r="H61" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10">
+        <v>4</v>
+      </c>
+      <c r="F62" s="11">
+        <v>2</v>
+      </c>
+      <c r="G62" s="14">
+        <v>2</v>
+      </c>
+      <c r="H62" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7">
+        <v>2</v>
+      </c>
+      <c r="E63" s="10">
+        <v>2</v>
+      </c>
+      <c r="F63" s="11">
+        <v>4</v>
+      </c>
+      <c r="G63" s="14">
+        <v>4</v>
+      </c>
+      <c r="H63" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2</v>
+      </c>
+      <c r="E64" s="12">
+        <v>2</v>
+      </c>
+      <c r="F64" s="13">
+        <v>4</v>
+      </c>
+      <c r="G64" s="16">
+        <v>2</v>
+      </c>
+      <c r="H64" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>5</v>
+      </c>
+      <c r="D65" s="9">
+        <v>5</v>
+      </c>
+      <c r="E65" s="12">
+        <v>4</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2</v>
+      </c>
+      <c r="G65" s="16">
+        <v>1</v>
+      </c>
+      <c r="H65" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9">
+        <v>4</v>
+      </c>
+      <c r="E66" s="12">
+        <v>2</v>
+      </c>
+      <c r="F66" s="13">
+        <v>4</v>
+      </c>
+      <c r="G66" s="16">
+        <v>3</v>
+      </c>
+      <c r="H66" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" s="8">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" s="12">
+        <v>2</v>
+      </c>
+      <c r="F67" s="13">
+        <v>4</v>
+      </c>
+      <c r="G67" s="16">
+        <v>4</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8">
+        <v>5</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="13">
+        <v>4</v>
+      </c>
+      <c r="G68" s="16">
+        <v>2</v>
+      </c>
+      <c r="H68" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8">
+        <v>4</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="13">
+        <v>3</v>
+      </c>
+      <c r="G69" s="16">
+        <v>3</v>
+      </c>
+      <c r="H69" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="8">
+        <v>2</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="13">
+        <v>3</v>
+      </c>
+      <c r="G70" s="16">
+        <v>2</v>
+      </c>
+      <c r="H70" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4</v>
+      </c>
+      <c r="D71" s="9">
+        <v>2</v>
+      </c>
+      <c r="E71" s="12">
+        <v>2</v>
+      </c>
+      <c r="F71" s="13">
+        <v>4</v>
+      </c>
+      <c r="G71" s="16">
+        <v>2</v>
+      </c>
+      <c r="H71" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8">
+        <v>5</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2</v>
+      </c>
+      <c r="E72" s="12">
+        <v>2</v>
+      </c>
+      <c r="F72" s="13">
+        <v>4</v>
+      </c>
+      <c r="G72" s="16">
+        <v>4</v>
+      </c>
+      <c r="H72" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" s="8">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9">
+        <v>3</v>
+      </c>
+      <c r="E73" s="12">
+        <v>2</v>
+      </c>
+      <c r="F73" s="13">
+        <v>3</v>
+      </c>
+      <c r="G73" s="16">
+        <v>5</v>
+      </c>
+      <c r="H73" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="8">
+        <v>5</v>
+      </c>
+      <c r="D74" s="9">
+        <v>2</v>
+      </c>
+      <c r="E74" s="12">
+        <v>2</v>
+      </c>
+      <c r="F74" s="13">
+        <v>4</v>
+      </c>
+      <c r="G74" s="16">
+        <v>4</v>
+      </c>
+      <c r="H74" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="8">
+        <v>5</v>
+      </c>
+      <c r="D75" s="9">
+        <v>3</v>
+      </c>
+      <c r="E75" s="12">
+        <v>2</v>
+      </c>
+      <c r="F75" s="13">
+        <v>4</v>
+      </c>
+      <c r="G75" s="16">
+        <v>3</v>
+      </c>
+      <c r="H75" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" s="8">
+        <v>4</v>
+      </c>
+      <c r="D76" s="9">
+        <v>4</v>
+      </c>
+      <c r="E76" s="12">
+        <v>4</v>
+      </c>
+      <c r="F76" s="13">
+        <v>4</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="8">
+        <v>5</v>
+      </c>
+      <c r="D77" s="9">
+        <v>4</v>
+      </c>
+      <c r="E77" s="12">
+        <v>3</v>
+      </c>
+      <c r="F77" s="13">
+        <v>3</v>
+      </c>
+      <c r="G77" s="16">
+        <v>3</v>
+      </c>
+      <c r="H77" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8">
+        <v>2</v>
+      </c>
+      <c r="D78" s="9">
+        <v>5</v>
+      </c>
+      <c r="E78" s="12">
+        <v>4</v>
+      </c>
+      <c r="F78" s="13">
+        <v>4</v>
+      </c>
+      <c r="G78" s="16">
+        <v>2</v>
+      </c>
+      <c r="H78" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" s="9">
+        <v>4</v>
+      </c>
+      <c r="E79" s="12">
+        <v>4</v>
+      </c>
+      <c r="F79" s="13">
+        <v>2</v>
+      </c>
+      <c r="G79" s="16">
+        <v>2</v>
+      </c>
+      <c r="H79" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" s="8">
+        <v>5</v>
+      </c>
+      <c r="D80" s="9">
+        <v>5</v>
+      </c>
+      <c r="E80" s="12">
+        <v>2</v>
+      </c>
+      <c r="F80" s="13">
+        <v>4</v>
+      </c>
+      <c r="G80" s="16">
+        <v>4</v>
+      </c>
+      <c r="H80" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" s="8">
+        <v>4</v>
+      </c>
+      <c r="D81" s="9">
+        <v>4</v>
+      </c>
+      <c r="E81" s="12">
+        <v>2</v>
+      </c>
+      <c r="F81" s="13">
+        <v>4</v>
+      </c>
+      <c r="G81" s="16">
+        <v>4</v>
+      </c>
+      <c r="H81" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="8">
+        <v>5</v>
+      </c>
+      <c r="D82" s="9">
+        <v>4</v>
+      </c>
+      <c r="E82" s="12">
+        <v>2</v>
+      </c>
+      <c r="F82" s="13">
+        <v>4</v>
+      </c>
+      <c r="G82" s="16">
+        <v>3</v>
+      </c>
+      <c r="H82" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="8">
+        <v>4</v>
+      </c>
+      <c r="D83" s="9">
+        <v>2</v>
+      </c>
+      <c r="E83" s="12">
+        <v>2</v>
+      </c>
+      <c r="F83" s="13">
+        <v>4</v>
+      </c>
+      <c r="G83" s="16">
+        <v>4</v>
+      </c>
+      <c r="H83" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <v>4</v>
+      </c>
+      <c r="E84" s="12">
+        <v>1</v>
+      </c>
+      <c r="F84" s="13">
+        <v>2</v>
+      </c>
+      <c r="G84" s="16">
+        <v>5</v>
+      </c>
+      <c r="H84" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="8">
+        <v>4</v>
+      </c>
+      <c r="D85" s="9">
+        <v>4</v>
+      </c>
+      <c r="E85" s="12">
+        <v>2</v>
+      </c>
+      <c r="F85" s="13">
+        <v>2</v>
+      </c>
+      <c r="G85" s="16">
+        <v>2</v>
+      </c>
+      <c r="H85" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="8">
+        <v>5</v>
+      </c>
+      <c r="D86" s="9">
+        <v>5</v>
+      </c>
+      <c r="E86" s="12">
+        <v>4</v>
+      </c>
+      <c r="F86" s="13">
+        <v>5</v>
+      </c>
+      <c r="G86" s="16">
+        <v>5</v>
+      </c>
+      <c r="H86" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" s="8">
+        <v>5</v>
+      </c>
+      <c r="D87" s="9">
+        <v>4</v>
+      </c>
+      <c r="E87" s="12">
+        <v>1</v>
+      </c>
+      <c r="F87" s="13">
+        <v>5</v>
+      </c>
+      <c r="G87" s="16">
+        <v>5</v>
+      </c>
+      <c r="H87" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" s="8">
+        <v>4</v>
+      </c>
+      <c r="D88" s="9">
+        <v>5</v>
+      </c>
+      <c r="E88" s="12">
+        <v>1</v>
+      </c>
+      <c r="F88" s="13">
+        <v>3</v>
+      </c>
+      <c r="G88" s="16">
+        <v>4</v>
+      </c>
+      <c r="H88" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="8">
+        <v>5</v>
+      </c>
+      <c r="D89" s="9">
+        <v>2</v>
+      </c>
+      <c r="E89" s="12">
+        <v>2</v>
+      </c>
+      <c r="F89" s="13">
+        <v>2</v>
+      </c>
+      <c r="G89" s="16">
+        <v>5</v>
+      </c>
+      <c r="H89" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="8">
+        <v>4</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4</v>
+      </c>
+      <c r="E90" s="12">
+        <v>3</v>
+      </c>
+      <c r="F90" s="13">
+        <v>2</v>
+      </c>
+      <c r="G90" s="16">
+        <v>2</v>
+      </c>
+      <c r="H90" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="8">
+        <v>4</v>
+      </c>
+      <c r="D91" s="9">
+        <v>4</v>
+      </c>
+      <c r="E91" s="12">
+        <v>2</v>
+      </c>
+      <c r="F91" s="13">
+        <v>2</v>
+      </c>
+      <c r="G91" s="16">
+        <v>4</v>
+      </c>
+      <c r="H91" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" s="8">
+        <v>4</v>
+      </c>
+      <c r="D92" s="9">
+        <v>4</v>
+      </c>
+      <c r="E92" s="12">
+        <v>4</v>
+      </c>
+      <c r="F92" s="13">
+        <v>4</v>
+      </c>
+      <c r="G92" s="16">
+        <v>3</v>
+      </c>
+      <c r="H92" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" s="8">
+        <v>4</v>
+      </c>
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="E93" s="12">
+        <v>2</v>
+      </c>
+      <c r="F93" s="13">
+        <v>4</v>
+      </c>
+      <c r="G93" s="16">
+        <v>4</v>
+      </c>
+      <c r="H93" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" s="8">
+        <v>5</v>
+      </c>
+      <c r="D94" s="9">
+        <v>4</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1</v>
+      </c>
+      <c r="F94" s="13">
+        <v>4</v>
+      </c>
+      <c r="G94" s="16">
+        <v>2</v>
+      </c>
+      <c r="H94" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="8">
+        <v>4</v>
+      </c>
+      <c r="D95" s="9">
+        <v>4</v>
+      </c>
+      <c r="E95" s="12">
+        <v>3</v>
+      </c>
+      <c r="F95" s="13">
+        <v>4</v>
+      </c>
+      <c r="G95" s="16">
+        <v>2</v>
+      </c>
+      <c r="H95" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="8">
+        <v>3</v>
+      </c>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="E96" s="12">
+        <v>5</v>
+      </c>
+      <c r="F96" s="13">
+        <v>3</v>
+      </c>
+      <c r="G96" s="16">
+        <v>4</v>
+      </c>
+      <c r="H96" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" s="8">
+        <v>4</v>
+      </c>
+      <c r="D97" s="9">
+        <v>3</v>
+      </c>
+      <c r="E97" s="12">
+        <v>4</v>
+      </c>
+      <c r="F97" s="13">
+        <v>4</v>
+      </c>
+      <c r="G97" s="16">
+        <v>3</v>
+      </c>
+      <c r="H97" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" s="8">
+        <v>5</v>
+      </c>
+      <c r="D98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" s="12">
+        <v>1</v>
+      </c>
+      <c r="F98" s="13">
+        <v>5</v>
+      </c>
+      <c r="G98" s="16">
+        <v>4</v>
+      </c>
+      <c r="H98" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" s="8">
+        <v>5</v>
+      </c>
+      <c r="D99" s="9">
+        <v>2</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1</v>
+      </c>
+      <c r="F99" s="13">
+        <v>4</v>
+      </c>
+      <c r="G99" s="16">
+        <v>1</v>
+      </c>
+      <c r="H99" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="8">
+        <v>4</v>
+      </c>
+      <c r="D100" s="9">
+        <v>3</v>
+      </c>
+      <c r="E100" s="12">
+        <v>2</v>
+      </c>
+      <c r="F100" s="13">
+        <v>4</v>
+      </c>
+      <c r="G100" s="16">
+        <v>2</v>
+      </c>
+      <c r="H100" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3</v>
+      </c>
+      <c r="D101" s="9">
+        <v>4</v>
+      </c>
+      <c r="E101" s="12">
+        <v>3</v>
+      </c>
+      <c r="F101" s="13">
+        <v>3</v>
+      </c>
+      <c r="G101" s="16">
+        <v>1</v>
+      </c>
+      <c r="H101" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="8">
+        <v>4</v>
+      </c>
+      <c r="D102" s="9">
+        <v>4</v>
+      </c>
+      <c r="E102" s="12">
+        <v>4</v>
+      </c>
+      <c r="F102" s="13">
+        <v>4</v>
+      </c>
+      <c r="G102" s="16">
+        <v>4</v>
+      </c>
+      <c r="H102" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" s="8">
+        <v>4</v>
+      </c>
+      <c r="D103" s="9">
+        <v>4</v>
+      </c>
+      <c r="E103" s="12">
+        <v>2</v>
+      </c>
+      <c r="F103" s="13">
+        <v>3</v>
+      </c>
+      <c r="G103" s="16">
+        <v>3</v>
+      </c>
+      <c r="H103" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" s="8">
+        <v>5</v>
+      </c>
+      <c r="D104" s="9">
+        <v>4</v>
+      </c>
+      <c r="E104" s="12">
+        <v>2</v>
+      </c>
+      <c r="F104" s="13">
+        <v>4</v>
+      </c>
+      <c r="G104" s="16">
+        <v>4</v>
+      </c>
+      <c r="H104" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="8">
+        <v>4</v>
+      </c>
+      <c r="D105" s="9">
+        <v>4</v>
+      </c>
+      <c r="E105" s="12">
+        <v>2</v>
+      </c>
+      <c r="F105" s="13">
+        <v>1</v>
+      </c>
+      <c r="G105" s="16">
+        <v>4</v>
+      </c>
+      <c r="H105" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="8">
+        <v>4</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4</v>
+      </c>
+      <c r="E106" s="12">
+        <v>2</v>
+      </c>
+      <c r="F106" s="13">
+        <v>2</v>
+      </c>
+      <c r="G106" s="16">
+        <v>4</v>
+      </c>
+      <c r="H106" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" s="8">
+        <v>5</v>
+      </c>
+      <c r="D107" s="9">
+        <v>4</v>
+      </c>
+      <c r="E107" s="12">
+        <v>2</v>
+      </c>
+      <c r="F107" s="13">
+        <v>2</v>
+      </c>
+      <c r="G107" s="16">
+        <v>3</v>
+      </c>
+      <c r="H107" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="8">
+        <v>4</v>
+      </c>
+      <c r="D108" s="9">
+        <v>4</v>
+      </c>
+      <c r="E108" s="12">
+        <v>2</v>
+      </c>
+      <c r="F108" s="13">
+        <v>3</v>
+      </c>
+      <c r="G108" s="16">
+        <v>4</v>
+      </c>
+      <c r="H108" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" s="8">
+        <v>4</v>
+      </c>
+      <c r="D109" s="9">
+        <v>4</v>
+      </c>
+      <c r="E109" s="12">
+        <v>2</v>
+      </c>
+      <c r="F109" s="13">
+        <v>3</v>
+      </c>
+      <c r="G109" s="16">
+        <v>2</v>
+      </c>
+      <c r="H109" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" s="8">
+        <v>4</v>
+      </c>
+      <c r="D110" s="9">
+        <v>4</v>
+      </c>
+      <c r="E110" s="12">
+        <v>2</v>
+      </c>
+      <c r="F110" s="13">
+        <v>2</v>
+      </c>
+      <c r="G110" s="16">
+        <v>4</v>
+      </c>
+      <c r="H110" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" s="8">
+        <v>4</v>
+      </c>
+      <c r="D111" s="9">
+        <v>4</v>
+      </c>
+      <c r="E111" s="12">
+        <v>2</v>
+      </c>
+      <c r="F111" s="13">
+        <v>4</v>
+      </c>
+      <c r="G111" s="16">
+        <v>3</v>
+      </c>
+      <c r="H111" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" s="8">
+        <v>5</v>
+      </c>
+      <c r="D112" s="9">
+        <v>3</v>
+      </c>
+      <c r="E112" s="12">
+        <v>2</v>
+      </c>
+      <c r="F112" s="13">
+        <v>4</v>
+      </c>
+      <c r="G112" s="16">
+        <v>3</v>
+      </c>
+      <c r="H112" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="8">
+        <v>2</v>
+      </c>
+      <c r="D113" s="9">
+        <v>4</v>
+      </c>
+      <c r="E113" s="12">
+        <v>4</v>
+      </c>
+      <c r="F113" s="13">
+        <v>2</v>
+      </c>
+      <c r="G113" s="16">
+        <v>4</v>
+      </c>
+      <c r="H113" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" s="8">
+        <v>4</v>
+      </c>
+      <c r="D114" s="9">
+        <v>4</v>
+      </c>
+      <c r="E114" s="12">
+        <v>4</v>
+      </c>
+      <c r="F114" s="13">
+        <v>4</v>
+      </c>
+      <c r="G114" s="16">
+        <v>4</v>
+      </c>
+      <c r="H114" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" s="8">
+        <v>3</v>
+      </c>
+      <c r="D115" s="9">
+        <v>3</v>
+      </c>
+      <c r="E115" s="12">
+        <v>2</v>
+      </c>
+      <c r="F115" s="13">
+        <v>4</v>
+      </c>
+      <c r="G115" s="16">
+        <v>2</v>
+      </c>
+      <c r="H115" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" s="8">
+        <v>2</v>
+      </c>
+      <c r="D116" s="9">
+        <v>4</v>
+      </c>
+      <c r="E116" s="12">
+        <v>4</v>
+      </c>
+      <c r="F116" s="13">
+        <v>3</v>
+      </c>
+      <c r="G116" s="16">
+        <v>3</v>
+      </c>
+      <c r="H116" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="8">
+        <v>4</v>
+      </c>
+      <c r="D117" s="9">
+        <v>4</v>
+      </c>
+      <c r="E117" s="12">
+        <v>2</v>
+      </c>
+      <c r="F117" s="13">
+        <v>5</v>
+      </c>
+      <c r="G117" s="16">
+        <v>3</v>
+      </c>
+      <c r="H117" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" s="8">
+        <v>2</v>
+      </c>
+      <c r="D118" s="9">
+        <v>2</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1</v>
+      </c>
+      <c r="F118" s="13">
+        <v>3</v>
+      </c>
+      <c r="G118" s="16">
+        <v>2</v>
+      </c>
+      <c r="H118" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" s="8">
+        <v>4</v>
+      </c>
+      <c r="D119" s="9">
+        <v>2</v>
+      </c>
+      <c r="E119" s="12">
+        <v>3</v>
+      </c>
+      <c r="F119" s="13">
+        <v>5</v>
+      </c>
+      <c r="G119" s="16">
+        <v>4</v>
+      </c>
+      <c r="H119" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" s="8">
+        <v>4</v>
+      </c>
+      <c r="D120" s="9">
+        <v>4</v>
+      </c>
+      <c r="E120" s="12">
+        <v>3</v>
+      </c>
+      <c r="F120" s="13">
+        <v>2</v>
+      </c>
+      <c r="G120" s="16">
+        <v>5</v>
+      </c>
+      <c r="H120" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" s="8">
+        <v>4</v>
+      </c>
+      <c r="D121" s="9">
+        <v>2</v>
+      </c>
+      <c r="E121" s="12">
+        <v>1</v>
+      </c>
+      <c r="F121" s="13">
+        <v>2</v>
+      </c>
+      <c r="G121" s="16">
+        <v>2</v>
+      </c>
+      <c r="H121" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" s="8">
+        <v>5</v>
+      </c>
+      <c r="D122" s="9">
+        <v>4</v>
+      </c>
+      <c r="E122" s="12">
+        <v>3</v>
+      </c>
+      <c r="F122" s="13">
+        <v>4</v>
+      </c>
+      <c r="G122" s="16">
+        <v>2</v>
+      </c>
+      <c r="H122" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="8">
+        <v>4</v>
+      </c>
+      <c r="D123" s="9">
+        <v>3</v>
+      </c>
+      <c r="E123" s="12">
+        <v>4</v>
+      </c>
+      <c r="F123" s="13">
+        <v>4</v>
+      </c>
+      <c r="G123" s="16">
+        <v>2</v>
+      </c>
+      <c r="H123" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" s="8">
+        <v>4</v>
+      </c>
+      <c r="D124" s="9">
+        <v>4</v>
+      </c>
+      <c r="E124" s="12">
+        <v>4</v>
+      </c>
+      <c r="F124" s="13">
+        <v>4</v>
+      </c>
+      <c r="G124" s="16">
+        <v>4</v>
+      </c>
+      <c r="H124" s="17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57:Q57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21">
+        <v>4</v>
+      </c>
+      <c r="E3" s="24">
+        <v>3</v>
+      </c>
+      <c r="F3" s="25">
+        <v>2</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25">
+        <v>2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>3</v>
+      </c>
+      <c r="H4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4</v>
+      </c>
+      <c r="E5" s="24">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25">
+        <v>3</v>
+      </c>
+      <c r="G5" s="28">
+        <v>3</v>
+      </c>
+      <c r="H5" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24">
+        <v>4</v>
+      </c>
+      <c r="F6" s="25">
+        <v>4</v>
+      </c>
+      <c r="G6" s="28">
+        <v>2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21">
+        <v>4</v>
+      </c>
+      <c r="E7" s="24">
+        <v>4</v>
+      </c>
+      <c r="F7" s="25">
+        <v>3</v>
+      </c>
+      <c r="G7" s="28">
+        <v>4</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="20">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3</v>
+      </c>
+      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25">
+        <v>4</v>
+      </c>
+      <c r="G8" s="28">
+        <v>4</v>
+      </c>
+      <c r="H8" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>5</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>5</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>2</v>
+      </c>
+      <c r="G10" s="28">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>5</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2</v>
+      </c>
+      <c r="H11" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>4</v>
+      </c>
+      <c r="E12" s="24">
+        <v>4</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>5</v>
+      </c>
+      <c r="H12" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19">
+        <v>4</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="28">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="24">
+        <v>4</v>
+      </c>
+      <c r="F14" s="25">
+        <v>4</v>
+      </c>
+      <c r="G14" s="28">
+        <v>4</v>
+      </c>
+      <c r="H14" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20">
+        <v>5</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4</v>
+      </c>
+      <c r="E15" s="24">
+        <v>2</v>
+      </c>
+      <c r="F15" s="25">
+        <v>4</v>
+      </c>
+      <c r="G15" s="28">
+        <v>4</v>
+      </c>
+      <c r="H15" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19">
+        <v>4</v>
+      </c>
+      <c r="C16" s="20">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25">
+        <v>4</v>
+      </c>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2</v>
+      </c>
+      <c r="E17" s="24">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>4</v>
+      </c>
+      <c r="G17" s="28">
+        <v>3</v>
+      </c>
+      <c r="H17" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2</v>
+      </c>
+      <c r="E18" s="24">
+        <v>2</v>
+      </c>
+      <c r="F18" s="25">
+        <v>3</v>
+      </c>
+      <c r="G18" s="28">
+        <v>2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="20">
+        <v>5</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24">
+        <v>4</v>
+      </c>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28">
+        <v>3</v>
+      </c>
+      <c r="H19" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19">
+        <v>3</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>4</v>
+      </c>
+      <c r="E20" s="24">
+        <v>3</v>
+      </c>
+      <c r="F20" s="25">
+        <v>2</v>
+      </c>
+      <c r="G20" s="28">
+        <v>4</v>
+      </c>
+      <c r="H20" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>5</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="24">
+        <v>4</v>
+      </c>
+      <c r="F21" s="25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="28">
+        <v>5</v>
+      </c>
+      <c r="H21" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2</v>
+      </c>
+      <c r="B22" s="19">
+        <v>4</v>
+      </c>
+      <c r="C22" s="20">
+        <v>4</v>
+      </c>
+      <c r="D22" s="21">
+        <v>3</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2</v>
+      </c>
+      <c r="F22" s="25">
+        <v>4</v>
+      </c>
+      <c r="G22" s="28">
+        <v>2</v>
+      </c>
+      <c r="H22" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>1</v>
+      </c>
+      <c r="B23" s="19">
+        <v>4</v>
+      </c>
+      <c r="C23" s="20">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21">
+        <v>2</v>
+      </c>
+      <c r="E23" s="24">
+        <v>2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28">
+        <v>2</v>
+      </c>
+      <c r="H23" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2</v>
+      </c>
+      <c r="B24" s="19">
+        <v>3</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>2</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25">
+        <v>3</v>
+      </c>
+      <c r="G24" s="28">
+        <v>3</v>
+      </c>
+      <c r="H24" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="19">
+        <v>3</v>
+      </c>
+      <c r="C25" s="20">
+        <v>5</v>
+      </c>
+      <c r="D25" s="21">
+        <v>5</v>
+      </c>
+      <c r="E25" s="24">
+        <v>4</v>
+      </c>
+      <c r="F25" s="25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="28">
+        <v>4</v>
+      </c>
+      <c r="H25" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4</v>
+      </c>
+      <c r="D26" s="21">
+        <v>2</v>
+      </c>
+      <c r="E26" s="24">
+        <v>2</v>
+      </c>
+      <c r="F26" s="25">
+        <v>5</v>
+      </c>
+      <c r="G26" s="28">
+        <v>2</v>
+      </c>
+      <c r="H26" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>5</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20">
+        <v>5</v>
+      </c>
+      <c r="D27" s="21">
+        <v>4</v>
+      </c>
+      <c r="E27" s="24">
+        <v>5</v>
+      </c>
+      <c r="F27" s="25">
+        <v>2</v>
+      </c>
+      <c r="G27" s="28">
+        <v>5</v>
+      </c>
+      <c r="H27" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>3</v>
+      </c>
+      <c r="B28" s="19">
+        <v>3</v>
+      </c>
+      <c r="C28" s="20">
+        <v>4</v>
+      </c>
+      <c r="D28" s="21">
+        <v>4</v>
+      </c>
+      <c r="E28" s="24">
+        <v>4</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4</v>
+      </c>
+      <c r="G28" s="28">
+        <v>3</v>
+      </c>
+      <c r="H28" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2</v>
+      </c>
+      <c r="B29" s="19">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" s="21">
+        <v>3</v>
+      </c>
+      <c r="E29" s="24">
+        <v>2</v>
+      </c>
+      <c r="F29" s="25">
+        <v>3</v>
+      </c>
+      <c r="G29" s="28">
+        <v>4</v>
+      </c>
+      <c r="H29" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19">
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>4</v>
+      </c>
+      <c r="D30" s="21">
+        <v>2</v>
+      </c>
+      <c r="E30" s="24">
+        <v>2</v>
+      </c>
+      <c r="F30" s="25">
+        <v>2</v>
+      </c>
+      <c r="G30" s="28">
+        <v>4</v>
+      </c>
+      <c r="H30" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>3</v>
+      </c>
+      <c r="B31" s="19">
+        <v>3</v>
+      </c>
+      <c r="C31" s="20">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21">
+        <v>3</v>
+      </c>
+      <c r="E31" s="24">
+        <v>4</v>
+      </c>
+      <c r="F31" s="25">
+        <v>4</v>
+      </c>
+      <c r="G31" s="28">
+        <v>1</v>
+      </c>
+      <c r="H31" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>3</v>
+      </c>
+      <c r="B32" s="19">
+        <v>3</v>
+      </c>
+      <c r="C32" s="20">
+        <v>5</v>
+      </c>
+      <c r="D32" s="21">
+        <v>2</v>
+      </c>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="25">
+        <v>4</v>
+      </c>
+      <c r="G32" s="28">
+        <v>5</v>
+      </c>
+      <c r="H32" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2</v>
+      </c>
+      <c r="B33" s="19">
+        <v>4</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>2</v>
+      </c>
+      <c r="E33" s="24">
+        <v>2</v>
+      </c>
+      <c r="F33" s="25">
+        <v>5</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>1</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20">
+        <v>4</v>
+      </c>
+      <c r="D34" s="21">
+        <v>4</v>
+      </c>
+      <c r="E34" s="24">
+        <v>2</v>
+      </c>
+      <c r="F34" s="25">
+        <v>2</v>
+      </c>
+      <c r="G34" s="28">
+        <v>3</v>
+      </c>
+      <c r="H34" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>1</v>
+      </c>
+      <c r="B35" s="19">
+        <v>4</v>
+      </c>
+      <c r="C35" s="20">
+        <v>5</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
+        <v>2</v>
+      </c>
+      <c r="F35" s="25">
+        <v>4</v>
+      </c>
+      <c r="G35" s="28">
+        <v>2</v>
+      </c>
+      <c r="H35" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19">
+        <v>3</v>
+      </c>
+      <c r="C36" s="20">
+        <v>5</v>
+      </c>
+      <c r="D36" s="21">
+        <v>2</v>
+      </c>
+      <c r="E36" s="24">
+        <v>2</v>
+      </c>
+      <c r="F36" s="25">
+        <v>3</v>
+      </c>
+      <c r="G36" s="28">
+        <v>2</v>
+      </c>
+      <c r="H36" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20">
+        <v>3</v>
+      </c>
+      <c r="D37" s="21">
+        <v>4</v>
+      </c>
+      <c r="E37" s="24">
+        <v>3</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1</v>
+      </c>
+      <c r="G37" s="28">
+        <v>4</v>
+      </c>
+      <c r="H37" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>2</v>
+      </c>
+      <c r="B38" s="19">
+        <v>3</v>
+      </c>
+      <c r="C38" s="20">
+        <v>4</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2</v>
+      </c>
+      <c r="E38" s="24">
+        <v>1</v>
+      </c>
+      <c r="F38" s="25">
+        <v>2</v>
+      </c>
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>2</v>
+      </c>
+      <c r="B39" s="19">
+        <v>2</v>
+      </c>
+      <c r="C39" s="20">
+        <v>4</v>
+      </c>
+      <c r="D39" s="21">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25">
+        <v>4</v>
+      </c>
+      <c r="G39" s="28">
+        <v>5</v>
+      </c>
+      <c r="H39" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>2</v>
+      </c>
+      <c r="B40" s="19">
+        <v>2</v>
+      </c>
+      <c r="C40" s="20">
+        <v>4</v>
+      </c>
+      <c r="D40" s="21">
+        <v>4</v>
+      </c>
+      <c r="E40" s="24">
+        <v>2</v>
+      </c>
+      <c r="F40" s="25">
+        <v>2</v>
+      </c>
+      <c r="G40" s="28">
+        <v>3</v>
+      </c>
+      <c r="H40" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>2</v>
+      </c>
+      <c r="B41" s="19">
+        <v>4</v>
+      </c>
+      <c r="C41" s="20">
+        <v>4</v>
+      </c>
+      <c r="D41" s="21">
+        <v>3</v>
+      </c>
+      <c r="E41" s="24">
+        <v>2</v>
+      </c>
+      <c r="F41" s="25">
+        <v>4</v>
+      </c>
+      <c r="G41" s="28">
+        <v>2</v>
+      </c>
+      <c r="H41" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>4</v>
+      </c>
+      <c r="B42" s="19">
+        <v>4</v>
+      </c>
+      <c r="C42" s="20">
+        <v>4</v>
+      </c>
+      <c r="D42" s="21">
+        <v>2</v>
+      </c>
+      <c r="E42" s="24">
+        <v>4</v>
+      </c>
+      <c r="F42" s="25">
+        <v>4</v>
+      </c>
+      <c r="G42" s="28">
+        <v>2</v>
+      </c>
+      <c r="H42" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>2</v>
+      </c>
+      <c r="B43" s="19">
+        <v>4</v>
+      </c>
+      <c r="C43" s="20">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21">
+        <v>2</v>
+      </c>
+      <c r="E43" s="24">
+        <v>2</v>
+      </c>
+      <c r="F43" s="25">
+        <v>3</v>
+      </c>
+      <c r="G43" s="28">
+        <v>2</v>
+      </c>
+      <c r="H43" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>4</v>
+      </c>
+      <c r="B44" s="19">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20">
+        <v>2</v>
+      </c>
+      <c r="D44" s="21">
+        <v>2</v>
+      </c>
+      <c r="E44" s="24">
+        <v>5</v>
+      </c>
+      <c r="F44" s="25">
+        <v>2</v>
+      </c>
+      <c r="G44" s="28">
+        <v>4</v>
+      </c>
+      <c r="H44" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>2</v>
+      </c>
+      <c r="B45" s="19">
+        <v>2</v>
+      </c>
+      <c r="C45" s="20">
+        <v>3</v>
+      </c>
+      <c r="D45" s="21">
+        <v>2</v>
+      </c>
+      <c r="E45" s="24">
+        <v>3</v>
+      </c>
+      <c r="F45" s="25">
+        <v>3</v>
+      </c>
+      <c r="G45" s="28">
+        <v>4</v>
+      </c>
+      <c r="H45" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>2</v>
+      </c>
+      <c r="B46" s="19">
+        <v>2</v>
+      </c>
+      <c r="C46" s="20">
+        <v>5</v>
+      </c>
+      <c r="D46" s="21">
+        <v>4</v>
+      </c>
+      <c r="E46" s="24">
+        <v>1</v>
+      </c>
+      <c r="F46" s="25">
+        <v>4</v>
+      </c>
+      <c r="G46" s="28">
+        <v>3</v>
+      </c>
+      <c r="H46" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>4</v>
+      </c>
+      <c r="B47" s="19">
+        <v>2</v>
+      </c>
+      <c r="C47" s="20">
+        <v>4</v>
+      </c>
+      <c r="D47" s="21">
+        <v>4</v>
+      </c>
+      <c r="E47" s="24">
+        <v>4</v>
+      </c>
+      <c r="F47" s="25">
+        <v>2</v>
+      </c>
+      <c r="G47" s="28">
+        <v>4</v>
+      </c>
+      <c r="H47" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>3</v>
+      </c>
+      <c r="B48" s="19">
+        <v>4</v>
+      </c>
+      <c r="C48" s="20">
+        <v>2</v>
+      </c>
+      <c r="D48" s="21">
+        <v>4</v>
+      </c>
+      <c r="E48" s="24">
+        <v>2</v>
+      </c>
+      <c r="F48" s="25">
+        <v>2</v>
+      </c>
+      <c r="G48" s="28">
+        <v>3</v>
+      </c>
+      <c r="H48" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>4</v>
+      </c>
+      <c r="B49" s="19">
+        <v>2</v>
+      </c>
+      <c r="C49" s="20">
+        <v>1</v>
+      </c>
+      <c r="D49" s="21">
+        <v>4</v>
+      </c>
+      <c r="E49" s="24">
+        <v>5</v>
+      </c>
+      <c r="F49" s="25">
+        <v>2</v>
+      </c>
+      <c r="G49" s="28">
+        <v>2</v>
+      </c>
+      <c r="H49" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>1</v>
+      </c>
+      <c r="B50" s="19">
+        <v>5</v>
+      </c>
+      <c r="C50" s="20">
+        <v>5</v>
+      </c>
+      <c r="D50" s="21">
+        <v>2</v>
+      </c>
+      <c r="E50" s="24">
+        <v>1</v>
+      </c>
+      <c r="F50" s="25">
+        <v>5</v>
+      </c>
+      <c r="G50" s="28">
+        <v>1</v>
+      </c>
+      <c r="H50" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>3</v>
+      </c>
+      <c r="B51" s="19">
+        <v>2</v>
+      </c>
+      <c r="C51" s="20">
+        <v>3</v>
+      </c>
+      <c r="D51" s="21">
+        <v>2</v>
+      </c>
+      <c r="E51" s="24">
+        <v>4</v>
+      </c>
+      <c r="F51" s="25">
+        <v>3</v>
+      </c>
+      <c r="G51" s="28">
+        <v>4</v>
+      </c>
+      <c r="H51" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>2</v>
+      </c>
+      <c r="B52" s="19">
+        <v>2</v>
+      </c>
+      <c r="C52" s="20">
+        <v>4</v>
+      </c>
+      <c r="D52" s="21">
+        <v>2</v>
+      </c>
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52" s="25">
+        <v>2</v>
+      </c>
+      <c r="G52" s="28">
+        <v>4</v>
+      </c>
+      <c r="H52" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>2</v>
+      </c>
+      <c r="B53" s="19">
+        <v>2</v>
+      </c>
+      <c r="C53" s="20">
+        <v>4</v>
+      </c>
+      <c r="D53" s="21">
+        <v>4</v>
+      </c>
+      <c r="E53" s="24">
+        <v>4</v>
+      </c>
+      <c r="F53" s="25">
+        <v>2</v>
+      </c>
+      <c r="G53" s="28">
+        <v>2</v>
+      </c>
+      <c r="H53" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>4</v>
+      </c>
+      <c r="B54" s="19">
+        <v>2</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+      <c r="D54" s="21">
+        <v>5</v>
+      </c>
+      <c r="E54" s="24">
+        <v>5</v>
+      </c>
+      <c r="F54" s="25">
+        <v>2</v>
+      </c>
+      <c r="G54" s="28">
+        <v>4</v>
+      </c>
+      <c r="H54" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>3</v>
+      </c>
+      <c r="B55" s="19">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20">
+        <v>4</v>
+      </c>
+      <c r="D55" s="21">
+        <v>4</v>
+      </c>
+      <c r="E55" s="24">
+        <v>4</v>
+      </c>
+      <c r="F55" s="25">
+        <v>5</v>
+      </c>
+      <c r="G55" s="28">
+        <v>1</v>
+      </c>
+      <c r="H55" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>2</v>
+      </c>
+      <c r="B56" s="19">
+        <v>2</v>
+      </c>
+      <c r="C56" s="20">
+        <v>4</v>
+      </c>
+      <c r="D56" s="21">
+        <v>3</v>
+      </c>
+      <c r="E56" s="24">
+        <v>4</v>
+      </c>
+      <c r="F56" s="25">
+        <v>4</v>
+      </c>
+      <c r="G56" s="28">
+        <v>5</v>
+      </c>
+      <c r="H56" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>3</v>
+      </c>
+      <c r="B57" s="19">
+        <v>3</v>
+      </c>
+      <c r="C57" s="20">
+        <v>4</v>
+      </c>
+      <c r="D57" s="21">
+        <v>2</v>
+      </c>
+      <c r="E57" s="24">
+        <v>2</v>
+      </c>
+      <c r="F57" s="25">
+        <v>5</v>
+      </c>
+      <c r="G57" s="28">
+        <v>3</v>
+      </c>
+      <c r="H57" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>2</v>
+      </c>
+      <c r="B58" s="19">
+        <v>5</v>
+      </c>
+      <c r="C58" s="20">
+        <v>3</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1</v>
+      </c>
+      <c r="E58" s="24">
+        <v>2</v>
+      </c>
+      <c r="F58" s="25">
+        <v>5</v>
+      </c>
+      <c r="G58" s="28">
+        <v>2</v>
+      </c>
+      <c r="H58" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>1</v>
+      </c>
+      <c r="B59" s="19">
+        <v>1</v>
+      </c>
+      <c r="C59" s="20">
+        <v>2</v>
+      </c>
+      <c r="D59" s="21">
+        <v>2</v>
+      </c>
+      <c r="E59" s="24">
+        <v>3</v>
+      </c>
+      <c r="F59" s="25">
+        <v>2</v>
+      </c>
+      <c r="G59" s="28">
+        <v>5</v>
+      </c>
+      <c r="H59" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>4</v>
+      </c>
+      <c r="B60" s="19">
+        <v>2</v>
+      </c>
+      <c r="C60" s="20">
+        <v>4</v>
+      </c>
+      <c r="D60" s="21">
+        <v>4</v>
+      </c>
+      <c r="E60" s="24">
+        <v>4</v>
+      </c>
+      <c r="F60" s="25">
+        <v>2</v>
+      </c>
+      <c r="G60" s="28">
+        <v>3</v>
+      </c>
+      <c r="H60" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>4</v>
+      </c>
+      <c r="B61" s="19">
+        <v>4</v>
+      </c>
+      <c r="C61" s="20">
+        <v>5</v>
+      </c>
+      <c r="D61" s="21">
+        <v>4</v>
+      </c>
+      <c r="E61" s="24">
+        <v>1</v>
+      </c>
+      <c r="F61" s="25">
+        <v>4</v>
+      </c>
+      <c r="G61" s="28">
+        <v>2</v>
+      </c>
+      <c r="H61" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>2</v>
+      </c>
+      <c r="B62" s="19">
+        <v>2</v>
+      </c>
+      <c r="C62" s="20">
+        <v>4</v>
+      </c>
+      <c r="D62" s="21">
+        <v>2</v>
+      </c>
+      <c r="E62" s="24">
+        <v>2</v>
+      </c>
+      <c r="F62" s="25">
+        <v>4</v>
+      </c>
+      <c r="G62" s="28">
+        <v>2</v>
+      </c>
+      <c r="H62" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <v>3</v>
+      </c>
+      <c r="B63" s="19">
+        <v>2</v>
+      </c>
+      <c r="C63" s="20">
+        <v>3</v>
+      </c>
+      <c r="D63" s="21">
+        <v>4</v>
+      </c>
+      <c r="E63" s="24">
+        <v>2</v>
+      </c>
+      <c r="F63" s="25">
+        <v>2</v>
+      </c>
+      <c r="G63" s="28">
+        <v>4</v>
+      </c>
+      <c r="H63" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <f>6-A64</f>
+        <v>2</v>
+      </c>
+      <c r="C64" s="22">
+        <v>2</v>
+      </c>
+      <c r="D64" s="23">
+        <v>4</v>
+      </c>
+      <c r="E64" s="26">
+        <v>4</v>
+      </c>
+      <c r="F64" s="27">
+        <v>2</v>
+      </c>
+      <c r="G64" s="30">
+        <v>4</v>
+      </c>
+      <c r="H64" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B124" si="0">6-A65</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="22">
+        <v>5</v>
+      </c>
+      <c r="D65" s="23">
+        <v>4</v>
+      </c>
+      <c r="E65" s="26">
+        <v>2</v>
+      </c>
+      <c r="F65" s="27">
+        <v>4</v>
+      </c>
+      <c r="G65" s="30">
+        <v>3</v>
+      </c>
+      <c r="H65" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C66" s="22">
+        <v>5</v>
+      </c>
+      <c r="D66" s="23">
+        <v>4</v>
+      </c>
+      <c r="E66" s="26">
+        <v>5</v>
+      </c>
+      <c r="F66" s="27">
+        <v>4</v>
+      </c>
+      <c r="G66" s="30">
+        <v>4</v>
+      </c>
+      <c r="H66" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C67" s="22">
+        <v>5</v>
+      </c>
+      <c r="D67" s="23">
+        <v>4</v>
+      </c>
+      <c r="E67" s="26">
+        <v>4</v>
+      </c>
+      <c r="F67" s="27">
+        <v>5</v>
+      </c>
+      <c r="G67" s="30">
+        <v>2</v>
+      </c>
+      <c r="H67" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C68" s="22">
+        <v>2</v>
+      </c>
+      <c r="D68" s="23">
+        <v>4</v>
+      </c>
+      <c r="E68" s="26">
+        <v>4</v>
+      </c>
+      <c r="F68" s="27">
+        <v>2</v>
+      </c>
+      <c r="G68" s="30">
+        <v>4</v>
+      </c>
+      <c r="H68" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C69" s="22">
+        <v>4</v>
+      </c>
+      <c r="D69" s="23">
+        <v>4</v>
+      </c>
+      <c r="E69" s="26">
+        <v>4</v>
+      </c>
+      <c r="F69" s="27">
+        <v>3</v>
+      </c>
+      <c r="G69" s="30">
+        <v>4</v>
+      </c>
+      <c r="H69" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C70" s="22">
+        <v>2</v>
+      </c>
+      <c r="D70" s="23">
+        <v>4</v>
+      </c>
+      <c r="E70" s="26">
+        <v>4</v>
+      </c>
+      <c r="F70" s="27">
+        <v>2</v>
+      </c>
+      <c r="G70" s="30">
+        <v>4</v>
+      </c>
+      <c r="H70" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C71" s="22">
+        <v>2</v>
+      </c>
+      <c r="D71" s="23">
+        <v>5</v>
+      </c>
+      <c r="E71" s="26">
+        <v>4</v>
+      </c>
+      <c r="F71" s="27">
+        <v>4</v>
+      </c>
+      <c r="G71" s="30">
+        <v>4</v>
+      </c>
+      <c r="H71" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C72" s="22">
+        <v>5</v>
+      </c>
+      <c r="D72" s="23">
+        <v>5</v>
+      </c>
+      <c r="E72" s="26">
+        <v>4</v>
+      </c>
+      <c r="F72" s="27">
+        <v>4</v>
+      </c>
+      <c r="G72" s="30">
+        <v>2</v>
+      </c>
+      <c r="H72" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C73" s="22">
+        <v>4</v>
+      </c>
+      <c r="D73" s="23">
+        <v>3</v>
+      </c>
+      <c r="E73" s="26">
+        <v>3</v>
+      </c>
+      <c r="F73" s="27">
+        <v>4</v>
+      </c>
+      <c r="G73" s="30">
+        <v>4</v>
+      </c>
+      <c r="H73" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C74" s="22">
+        <v>4</v>
+      </c>
+      <c r="D74" s="23">
+        <v>4</v>
+      </c>
+      <c r="E74" s="26">
+        <v>4</v>
+      </c>
+      <c r="F74" s="27">
+        <v>4</v>
+      </c>
+      <c r="G74" s="30">
+        <v>4</v>
+      </c>
+      <c r="H74" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C75" s="22">
+        <v>4</v>
+      </c>
+      <c r="D75" s="23">
+        <v>4</v>
+      </c>
+      <c r="E75" s="26">
+        <v>4</v>
+      </c>
+      <c r="F75" s="27">
+        <v>4</v>
+      </c>
+      <c r="G75" s="30">
+        <v>5</v>
+      </c>
+      <c r="H75" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C76" s="22">
+        <v>4</v>
+      </c>
+      <c r="D76" s="23">
+        <v>4</v>
+      </c>
+      <c r="E76" s="26">
+        <v>5</v>
+      </c>
+      <c r="F76" s="27">
+        <v>4</v>
+      </c>
+      <c r="G76" s="30">
+        <v>3</v>
+      </c>
+      <c r="H76" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C77" s="22">
+        <v>5</v>
+      </c>
+      <c r="D77" s="23">
+        <v>3</v>
+      </c>
+      <c r="E77" s="26">
+        <v>2</v>
+      </c>
+      <c r="F77" s="27">
+        <v>3</v>
+      </c>
+      <c r="G77" s="30">
+        <v>3</v>
+      </c>
+      <c r="H77" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C78" s="22">
+        <v>4</v>
+      </c>
+      <c r="D78" s="23">
+        <v>4</v>
+      </c>
+      <c r="E78" s="26">
+        <v>2</v>
+      </c>
+      <c r="F78" s="27">
+        <v>3</v>
+      </c>
+      <c r="G78" s="30">
+        <v>4</v>
+      </c>
+      <c r="H78" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C79" s="22">
+        <v>4</v>
+      </c>
+      <c r="D79" s="23">
+        <v>2</v>
+      </c>
+      <c r="E79" s="26">
+        <v>2</v>
+      </c>
+      <c r="F79" s="27">
+        <v>4</v>
+      </c>
+      <c r="G79" s="30">
+        <v>2</v>
+      </c>
+      <c r="H79" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C80" s="22">
+        <v>5</v>
+      </c>
+      <c r="D80" s="23">
+        <v>2</v>
+      </c>
+      <c r="E80" s="26">
+        <v>3</v>
+      </c>
+      <c r="F80" s="27">
+        <v>5</v>
+      </c>
+      <c r="G80" s="30">
+        <v>2</v>
+      </c>
+      <c r="H80" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C81" s="22">
+        <v>4</v>
+      </c>
+      <c r="D81" s="23">
+        <v>4</v>
+      </c>
+      <c r="E81" s="26">
+        <v>4</v>
+      </c>
+      <c r="F81" s="27">
+        <v>3</v>
+      </c>
+      <c r="G81" s="30">
+        <v>4</v>
+      </c>
+      <c r="H81" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C82" s="22">
+        <v>2</v>
+      </c>
+      <c r="D82" s="23">
+        <v>5</v>
+      </c>
+      <c r="E82" s="26">
+        <v>4</v>
+      </c>
+      <c r="F82" s="27">
+        <v>3</v>
+      </c>
+      <c r="G82" s="30">
+        <v>5</v>
+      </c>
+      <c r="H82" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C83" s="22">
+        <v>3</v>
+      </c>
+      <c r="D83" s="23">
+        <v>3</v>
+      </c>
+      <c r="E83" s="26">
+        <v>2</v>
+      </c>
+      <c r="F83" s="27">
+        <v>4</v>
+      </c>
+      <c r="G83" s="30">
+        <v>2</v>
+      </c>
+      <c r="H83" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C84" s="22">
+        <v>3</v>
+      </c>
+      <c r="D84" s="23">
+        <v>3</v>
+      </c>
+      <c r="E84" s="26">
+        <v>2</v>
+      </c>
+      <c r="F84" s="27">
+        <v>4</v>
+      </c>
+      <c r="G84" s="30">
+        <v>2</v>
+      </c>
+      <c r="H84" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2</v>
+      </c>
+      <c r="D85" s="23">
+        <v>4</v>
+      </c>
+      <c r="E85" s="26">
+        <v>1</v>
+      </c>
+      <c r="F85" s="27">
+        <v>3</v>
+      </c>
+      <c r="G85" s="30">
+        <v>3</v>
+      </c>
+      <c r="H85" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C86" s="22">
+        <v>5</v>
+      </c>
+      <c r="D86" s="23">
+        <v>5</v>
+      </c>
+      <c r="E86" s="26">
+        <v>4</v>
+      </c>
+      <c r="F86" s="27">
+        <v>4</v>
+      </c>
+      <c r="G86" s="30">
+        <v>5</v>
+      </c>
+      <c r="H86" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C87" s="22">
+        <v>4</v>
+      </c>
+      <c r="D87" s="23">
+        <v>2</v>
+      </c>
+      <c r="E87" s="26">
+        <v>4</v>
+      </c>
+      <c r="F87" s="27">
+        <v>5</v>
+      </c>
+      <c r="G87" s="30">
+        <v>2</v>
+      </c>
+      <c r="H87" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C88" s="22">
+        <v>3</v>
+      </c>
+      <c r="D88" s="23">
+        <v>4</v>
+      </c>
+      <c r="E88" s="26">
+        <v>4</v>
+      </c>
+      <c r="F88" s="27">
+        <v>1</v>
+      </c>
+      <c r="G88" s="30">
+        <v>4</v>
+      </c>
+      <c r="H88" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C89" s="22">
+        <v>4</v>
+      </c>
+      <c r="D89" s="23">
+        <v>4</v>
+      </c>
+      <c r="E89" s="26">
+        <v>4</v>
+      </c>
+      <c r="F89" s="27">
+        <v>4</v>
+      </c>
+      <c r="G89" s="30">
+        <v>3</v>
+      </c>
+      <c r="H89" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C90" s="22">
+        <v>4</v>
+      </c>
+      <c r="D90" s="23">
+        <v>4</v>
+      </c>
+      <c r="E90" s="26">
+        <v>4</v>
+      </c>
+      <c r="F90" s="27">
+        <v>3</v>
+      </c>
+      <c r="G90" s="30">
+        <v>4</v>
+      </c>
+      <c r="H90" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C91" s="22">
+        <v>4</v>
+      </c>
+      <c r="D91" s="23">
+        <v>4</v>
+      </c>
+      <c r="E91" s="26">
+        <v>2</v>
+      </c>
+      <c r="F91" s="27">
+        <v>4</v>
+      </c>
+      <c r="G91" s="30">
+        <v>4</v>
+      </c>
+      <c r="H91" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C92" s="22">
+        <v>4</v>
+      </c>
+      <c r="D92" s="23">
+        <v>4</v>
+      </c>
+      <c r="E92" s="26">
+        <v>4</v>
+      </c>
+      <c r="F92" s="27">
+        <v>4</v>
+      </c>
+      <c r="G92" s="30">
+        <v>2</v>
+      </c>
+      <c r="H92" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C93" s="22">
+        <v>5</v>
+      </c>
+      <c r="D93" s="23">
+        <v>4</v>
+      </c>
+      <c r="E93" s="26">
+        <v>3</v>
+      </c>
+      <c r="F93" s="27">
+        <v>5</v>
+      </c>
+      <c r="G93" s="30">
+        <v>4</v>
+      </c>
+      <c r="H93" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C94" s="22">
+        <v>5</v>
+      </c>
+      <c r="D94" s="23">
+        <v>4</v>
+      </c>
+      <c r="E94" s="26">
+        <v>1</v>
+      </c>
+      <c r="F94" s="27">
+        <v>5</v>
+      </c>
+      <c r="G94" s="30">
+        <v>1</v>
+      </c>
+      <c r="H94" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C95" s="22">
+        <v>5</v>
+      </c>
+      <c r="D95" s="23">
+        <v>4</v>
+      </c>
+      <c r="E95" s="26">
+        <v>2</v>
+      </c>
+      <c r="F95" s="27">
+        <v>2</v>
+      </c>
+      <c r="G95" s="30">
+        <v>3</v>
+      </c>
+      <c r="H95" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C96" s="22">
+        <v>5</v>
+      </c>
+      <c r="D96" s="23">
+        <v>3</v>
+      </c>
+      <c r="E96" s="26">
+        <v>3</v>
+      </c>
+      <c r="F96" s="27">
+        <v>4</v>
+      </c>
+      <c r="G96" s="30">
+        <v>2</v>
+      </c>
+      <c r="H96" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C97" s="22">
+        <v>5</v>
+      </c>
+      <c r="D97" s="23">
+        <v>4</v>
+      </c>
+      <c r="E97" s="26">
+        <v>2</v>
+      </c>
+      <c r="F97" s="27">
+        <v>3</v>
+      </c>
+      <c r="G97" s="30">
+        <v>2</v>
+      </c>
+      <c r="H97" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C98" s="22">
+        <v>4</v>
+      </c>
+      <c r="D98" s="23">
+        <v>5</v>
+      </c>
+      <c r="E98" s="26">
+        <v>4</v>
+      </c>
+      <c r="F98" s="27">
+        <v>2</v>
+      </c>
+      <c r="G98" s="30">
+        <v>4</v>
+      </c>
+      <c r="H98" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C99" s="22">
+        <v>5</v>
+      </c>
+      <c r="D99" s="23">
+        <v>4</v>
+      </c>
+      <c r="E99" s="26">
+        <v>2</v>
+      </c>
+      <c r="F99" s="27">
+        <v>2</v>
+      </c>
+      <c r="G99" s="30">
+        <v>3</v>
+      </c>
+      <c r="H99" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C100" s="22">
+        <v>4</v>
+      </c>
+      <c r="D100" s="23">
+        <v>4</v>
+      </c>
+      <c r="E100" s="26">
+        <v>2</v>
+      </c>
+      <c r="F100" s="27">
+        <v>4</v>
+      </c>
+      <c r="G100" s="30">
+        <v>5</v>
+      </c>
+      <c r="H100" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C101" s="22">
+        <v>4</v>
+      </c>
+      <c r="D101" s="23">
+        <v>4</v>
+      </c>
+      <c r="E101" s="26">
+        <v>2</v>
+      </c>
+      <c r="F101" s="27">
+        <v>4</v>
+      </c>
+      <c r="G101" s="30">
+        <v>3</v>
+      </c>
+      <c r="H101" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C102" s="22">
+        <v>5</v>
+      </c>
+      <c r="D102" s="23">
+        <v>2</v>
+      </c>
+      <c r="E102" s="26">
+        <v>4</v>
+      </c>
+      <c r="F102" s="27">
+        <v>5</v>
+      </c>
+      <c r="G102" s="30">
+        <v>2</v>
+      </c>
+      <c r="H102" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C103" s="22">
+        <v>4</v>
+      </c>
+      <c r="D103" s="23">
+        <v>2</v>
+      </c>
+      <c r="E103" s="26">
+        <v>5</v>
+      </c>
+      <c r="F103" s="27">
+        <v>4</v>
+      </c>
+      <c r="G103" s="30">
+        <v>4</v>
+      </c>
+      <c r="H103" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C104" s="22">
+        <v>4</v>
+      </c>
+      <c r="D104" s="23">
+        <v>4</v>
+      </c>
+      <c r="E104" s="26">
+        <v>5</v>
+      </c>
+      <c r="F104" s="27">
+        <v>4</v>
+      </c>
+      <c r="G104" s="30">
+        <v>3</v>
+      </c>
+      <c r="H104" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C105" s="22">
+        <v>4</v>
+      </c>
+      <c r="D105" s="23">
+        <v>4</v>
+      </c>
+      <c r="E105" s="26">
+        <v>5</v>
+      </c>
+      <c r="F105" s="27">
+        <v>2</v>
+      </c>
+      <c r="G105" s="30">
+        <v>4</v>
+      </c>
+      <c r="H105" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C106" s="22">
+        <v>4</v>
+      </c>
+      <c r="D106" s="23">
+        <v>4</v>
+      </c>
+      <c r="E106" s="26">
+        <v>4</v>
+      </c>
+      <c r="F106" s="27">
+        <v>4</v>
+      </c>
+      <c r="G106" s="30">
+        <v>4</v>
+      </c>
+      <c r="H106" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C107" s="22">
+        <v>5</v>
+      </c>
+      <c r="D107" s="23">
+        <v>4</v>
+      </c>
+      <c r="E107" s="26">
+        <v>2</v>
+      </c>
+      <c r="F107" s="27">
+        <v>4</v>
+      </c>
+      <c r="G107" s="30">
+        <v>4</v>
+      </c>
+      <c r="H107" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C108" s="22">
+        <v>4</v>
+      </c>
+      <c r="D108" s="23">
+        <v>4</v>
+      </c>
+      <c r="E108" s="26">
+        <v>4</v>
+      </c>
+      <c r="F108" s="27">
+        <v>4</v>
+      </c>
+      <c r="G108" s="30">
+        <v>4</v>
+      </c>
+      <c r="H108" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C109" s="22">
+        <v>4</v>
+      </c>
+      <c r="D109" s="23">
+        <v>4</v>
+      </c>
+      <c r="E109" s="26">
+        <v>4</v>
+      </c>
+      <c r="F109" s="27">
+        <v>4</v>
+      </c>
+      <c r="G109" s="30">
+        <v>4</v>
+      </c>
+      <c r="H109" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C110" s="22">
+        <v>2</v>
+      </c>
+      <c r="D110" s="23">
+        <v>4</v>
+      </c>
+      <c r="E110" s="26">
+        <v>4</v>
+      </c>
+      <c r="F110" s="27">
+        <v>2</v>
+      </c>
+      <c r="G110" s="30">
+        <v>2</v>
+      </c>
+      <c r="H110" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C111" s="22">
+        <v>5</v>
+      </c>
+      <c r="D111" s="23">
+        <v>1</v>
+      </c>
+      <c r="E111" s="26">
+        <v>1</v>
+      </c>
+      <c r="F111" s="27">
+        <v>5</v>
+      </c>
+      <c r="G111" s="30">
+        <v>1</v>
+      </c>
+      <c r="H111" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C112" s="22">
+        <v>4</v>
+      </c>
+      <c r="D112" s="23">
+        <v>3</v>
+      </c>
+      <c r="E112" s="26">
+        <v>4</v>
+      </c>
+      <c r="F112" s="27">
+        <v>2</v>
+      </c>
+      <c r="G112" s="30">
+        <v>4</v>
+      </c>
+      <c r="H112" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C113" s="22">
+        <v>4</v>
+      </c>
+      <c r="D113" s="23">
+        <v>3</v>
+      </c>
+      <c r="E113" s="26">
+        <v>4</v>
+      </c>
+      <c r="F113" s="27">
+        <v>4</v>
+      </c>
+      <c r="G113" s="30">
+        <v>3</v>
+      </c>
+      <c r="H113" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C114" s="22">
+        <v>4</v>
+      </c>
+      <c r="D114" s="23">
+        <v>4</v>
+      </c>
+      <c r="E114" s="26">
+        <v>4</v>
+      </c>
+      <c r="F114" s="27">
+        <v>4</v>
+      </c>
+      <c r="G114" s="30">
+        <v>2</v>
+      </c>
+      <c r="H114" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C115" s="22">
+        <v>3</v>
+      </c>
+      <c r="D115" s="23">
+        <v>5</v>
+      </c>
+      <c r="E115" s="26">
+        <v>5</v>
+      </c>
+      <c r="F115" s="27">
+        <v>2</v>
+      </c>
+      <c r="G115" s="30">
+        <v>4</v>
+      </c>
+      <c r="H115" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C116" s="22">
+        <v>2</v>
+      </c>
+      <c r="D116" s="23">
+        <v>3</v>
+      </c>
+      <c r="E116" s="26">
+        <v>3</v>
+      </c>
+      <c r="F116" s="27">
+        <v>4</v>
+      </c>
+      <c r="G116" s="30">
+        <v>2</v>
+      </c>
+      <c r="H116" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C117" s="22">
+        <v>4</v>
+      </c>
+      <c r="D117" s="23">
+        <v>4</v>
+      </c>
+      <c r="E117" s="26">
+        <v>4</v>
+      </c>
+      <c r="F117" s="27">
+        <v>4</v>
+      </c>
+      <c r="G117" s="30">
+        <v>4</v>
+      </c>
+      <c r="H117" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C118" s="22">
+        <v>2</v>
+      </c>
+      <c r="D118" s="23">
+        <v>2</v>
+      </c>
+      <c r="E118" s="26">
+        <v>4</v>
+      </c>
+      <c r="F118" s="27">
+        <v>4</v>
+      </c>
+      <c r="G118" s="30">
+        <v>2</v>
+      </c>
+      <c r="H118" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C119" s="22">
+        <v>4</v>
+      </c>
+      <c r="D119" s="23">
+        <v>1</v>
+      </c>
+      <c r="E119" s="26">
+        <v>2</v>
+      </c>
+      <c r="F119" s="27">
+        <v>5</v>
+      </c>
+      <c r="G119" s="30">
+        <v>2</v>
+      </c>
+      <c r="H119" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C120" s="22">
+        <v>3</v>
+      </c>
+      <c r="D120" s="23">
+        <v>4</v>
+      </c>
+      <c r="E120" s="26">
+        <v>1</v>
+      </c>
+      <c r="F120" s="27">
+        <v>3</v>
+      </c>
+      <c r="G120" s="30">
+        <v>5</v>
+      </c>
+      <c r="H120" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C121" s="22">
+        <v>4</v>
+      </c>
+      <c r="D121" s="23">
+        <v>4</v>
+      </c>
+      <c r="E121" s="26">
+        <v>4</v>
+      </c>
+      <c r="F121" s="27">
+        <v>2</v>
+      </c>
+      <c r="G121" s="30">
+        <v>5</v>
+      </c>
+      <c r="H121" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C122" s="22">
+        <v>5</v>
+      </c>
+      <c r="D122" s="23">
+        <v>4</v>
+      </c>
+      <c r="E122" s="26">
+        <v>4</v>
+      </c>
+      <c r="F122" s="27">
+        <v>4</v>
+      </c>
+      <c r="G122" s="30">
+        <v>4</v>
+      </c>
+      <c r="H122" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C123" s="22">
+        <v>4</v>
+      </c>
+      <c r="D123" s="23">
+        <v>3</v>
+      </c>
+      <c r="E123" s="26">
+        <v>2</v>
+      </c>
+      <c r="F123" s="27">
+        <v>4</v>
+      </c>
+      <c r="G123" s="30">
+        <v>2</v>
+      </c>
+      <c r="H123" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C124" s="22">
+        <v>4</v>
+      </c>
+      <c r="D124" s="23">
+        <v>4</v>
+      </c>
+      <c r="E124" s="26">
+        <v>4</v>
+      </c>
+      <c r="F124" s="27">
+        <v>3</v>
+      </c>
+      <c r="G124" s="30">
+        <v>5</v>
+      </c>
+      <c r="H124" s="31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H124"/>
+  <sheetViews>
+    <sheetView topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105:R105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34">
+        <v>4</v>
+      </c>
+      <c r="D3" s="35">
+        <v>3</v>
+      </c>
+      <c r="E3" s="38">
+        <v>2</v>
+      </c>
+      <c r="F3" s="39">
+        <v>4</v>
+      </c>
+      <c r="G3" s="42">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38">
+        <v>2</v>
+      </c>
+      <c r="F4" s="39">
+        <v>2</v>
+      </c>
+      <c r="G4" s="42">
+        <v>3</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34">
+        <v>5</v>
+      </c>
+      <c r="D5" s="35">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>4</v>
+      </c>
+      <c r="F5" s="39">
+        <v>4</v>
+      </c>
+      <c r="G5" s="42">
+        <v>3</v>
+      </c>
+      <c r="H5" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+      <c r="C6" s="34">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>4</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>3</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33">
+        <v>4</v>
+      </c>
+      <c r="C7" s="34">
+        <v>4</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38">
+        <v>2</v>
+      </c>
+      <c r="F7" s="39">
+        <v>4</v>
+      </c>
+      <c r="G7" s="42">
+        <v>4</v>
+      </c>
+      <c r="H7" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>1</v>
+      </c>
+      <c r="B8" s="33">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34">
+        <v>4</v>
+      </c>
+      <c r="D8" s="35">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38">
+        <v>2</v>
+      </c>
+      <c r="F8" s="39">
+        <v>4</v>
+      </c>
+      <c r="G8" s="42">
+        <v>2</v>
+      </c>
+      <c r="H8" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>2</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2</v>
+      </c>
+      <c r="C9" s="34">
+        <v>3</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2</v>
+      </c>
+      <c r="F9" s="39">
+        <v>2</v>
+      </c>
+      <c r="G9" s="42">
+        <v>3</v>
+      </c>
+      <c r="H9" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38">
+        <v>2</v>
+      </c>
+      <c r="F10" s="39">
+        <v>4</v>
+      </c>
+      <c r="G10" s="42">
+        <v>4</v>
+      </c>
+      <c r="H10" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>2</v>
+      </c>
+      <c r="B11" s="33">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="35">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38">
+        <v>2</v>
+      </c>
+      <c r="F11" s="39">
+        <v>4</v>
+      </c>
+      <c r="G11" s="42">
+        <v>4</v>
+      </c>
+      <c r="H11" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>1</v>
+      </c>
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3</v>
+      </c>
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="38">
+        <v>2</v>
+      </c>
+      <c r="F12" s="39">
+        <v>3</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1</v>
+      </c>
+      <c r="H12" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>2</v>
+      </c>
+      <c r="B13" s="33">
+        <v>4</v>
+      </c>
+      <c r="C13" s="34">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="39">
+        <v>4</v>
+      </c>
+      <c r="G13" s="42">
+        <v>3</v>
+      </c>
+      <c r="H13" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>3</v>
+      </c>
+      <c r="B14" s="33">
+        <v>4</v>
+      </c>
+      <c r="C14" s="34">
+        <v>4</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="38">
+        <v>4</v>
+      </c>
+      <c r="F14" s="39">
+        <v>4</v>
+      </c>
+      <c r="G14" s="42">
+        <v>4</v>
+      </c>
+      <c r="H14" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33">
+        <v>4</v>
+      </c>
+      <c r="C15" s="34">
+        <v>5</v>
+      </c>
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="39">
+        <v>4</v>
+      </c>
+      <c r="G15" s="42">
+        <v>2</v>
+      </c>
+      <c r="H15" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>2</v>
+      </c>
+      <c r="B16" s="33">
+        <v>4</v>
+      </c>
+      <c r="C16" s="34">
+        <v>5</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <v>5</v>
+      </c>
+      <c r="G16" s="42">
+        <v>3</v>
+      </c>
+      <c r="H16" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34">
+        <v>3</v>
+      </c>
+      <c r="D17" s="35">
+        <v>2</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="39">
+        <v>4</v>
+      </c>
+      <c r="G17" s="42">
+        <v>5</v>
+      </c>
+      <c r="H17" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>2</v>
+      </c>
+      <c r="B18" s="33">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>2</v>
+      </c>
+      <c r="F18" s="39">
+        <v>2</v>
+      </c>
+      <c r="G18" s="42">
+        <v>4</v>
+      </c>
+      <c r="H18" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>1</v>
+      </c>
+      <c r="B19" s="33">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>4</v>
+      </c>
+      <c r="D19" s="35">
+        <v>4</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="39">
+        <v>5</v>
+      </c>
+      <c r="G19" s="42">
+        <v>3</v>
+      </c>
+      <c r="H19" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>2</v>
+      </c>
+      <c r="B20" s="33">
+        <v>2</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2</v>
+      </c>
+      <c r="D20" s="35">
+        <v>2</v>
+      </c>
+      <c r="E20" s="38">
+        <v>2</v>
+      </c>
+      <c r="F20" s="39">
+        <v>4</v>
+      </c>
+      <c r="G20" s="42">
+        <v>4</v>
+      </c>
+      <c r="H20" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33">
+        <v>5</v>
+      </c>
+      <c r="C21" s="34">
+        <v>3</v>
+      </c>
+      <c r="D21" s="35">
+        <v>3</v>
+      </c>
+      <c r="E21" s="38">
+        <v>4</v>
+      </c>
+      <c r="F21" s="39">
+        <v>4</v>
+      </c>
+      <c r="G21" s="42">
+        <v>3</v>
+      </c>
+      <c r="H21" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>2</v>
+      </c>
+      <c r="B22" s="33">
+        <v>5</v>
+      </c>
+      <c r="C22" s="34">
+        <v>5</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4</v>
+      </c>
+      <c r="E22" s="38">
+        <v>2</v>
+      </c>
+      <c r="F22" s="39">
+        <v>2</v>
+      </c>
+      <c r="G22" s="42">
+        <v>2</v>
+      </c>
+      <c r="H22" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>4</v>
+      </c>
+      <c r="B23" s="33">
+        <v>4</v>
+      </c>
+      <c r="C23" s="34">
+        <v>4</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2</v>
+      </c>
+      <c r="E23" s="38">
+        <v>2</v>
+      </c>
+      <c r="F23" s="39">
+        <v>4</v>
+      </c>
+      <c r="G23" s="42">
+        <v>3</v>
+      </c>
+      <c r="H23" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>3</v>
+      </c>
+      <c r="B24" s="33">
+        <v>3</v>
+      </c>
+      <c r="C24" s="34">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2</v>
+      </c>
+      <c r="E24" s="38">
+        <v>2</v>
+      </c>
+      <c r="F24" s="39">
+        <v>4</v>
+      </c>
+      <c r="G24" s="42">
+        <v>3</v>
+      </c>
+      <c r="H24" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>2</v>
+      </c>
+      <c r="B25" s="33">
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <v>4</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="38">
+        <v>2</v>
+      </c>
+      <c r="F25" s="39">
+        <v>2</v>
+      </c>
+      <c r="G25" s="42">
+        <v>5</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>4</v>
+      </c>
+      <c r="B26" s="33">
+        <v>2</v>
+      </c>
+      <c r="C26" s="34">
+        <v>3</v>
+      </c>
+      <c r="D26" s="35">
+        <v>4</v>
+      </c>
+      <c r="E26" s="38">
+        <v>2</v>
+      </c>
+      <c r="F26" s="39">
+        <v>2</v>
+      </c>
+      <c r="G26" s="42">
+        <v>2</v>
+      </c>
+      <c r="H26" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33">
+        <v>3</v>
+      </c>
+      <c r="C27" s="34">
+        <v>4</v>
+      </c>
+      <c r="D27" s="35">
+        <v>3</v>
+      </c>
+      <c r="E27" s="38">
+        <v>1</v>
+      </c>
+      <c r="F27" s="39">
+        <v>4</v>
+      </c>
+      <c r="G27" s="42">
+        <v>3</v>
+      </c>
+      <c r="H27" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>1</v>
+      </c>
+      <c r="B28" s="33">
+        <v>3</v>
+      </c>
+      <c r="C28" s="34">
+        <v>4</v>
+      </c>
+      <c r="D28" s="35">
+        <v>3</v>
+      </c>
+      <c r="E28" s="38">
+        <v>2</v>
+      </c>
+      <c r="F28" s="39">
+        <v>4</v>
+      </c>
+      <c r="G28" s="42">
+        <v>3</v>
+      </c>
+      <c r="H28" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>2</v>
+      </c>
+      <c r="B29" s="33">
+        <v>3</v>
+      </c>
+      <c r="C29" s="34">
+        <v>4</v>
+      </c>
+      <c r="D29" s="35">
+        <v>3</v>
+      </c>
+      <c r="E29" s="38">
+        <v>2</v>
+      </c>
+      <c r="F29" s="39">
+        <v>3</v>
+      </c>
+      <c r="G29" s="42">
+        <v>3</v>
+      </c>
+      <c r="H29" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>2</v>
+      </c>
+      <c r="B30" s="33">
+        <v>2</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2</v>
+      </c>
+      <c r="E30" s="38">
+        <v>2</v>
+      </c>
+      <c r="F30" s="39">
+        <v>4</v>
+      </c>
+      <c r="G30" s="42">
+        <v>2</v>
+      </c>
+      <c r="H30" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>3</v>
+      </c>
+      <c r="B31" s="33">
+        <v>2</v>
+      </c>
+      <c r="C31" s="34">
+        <v>3</v>
+      </c>
+      <c r="D31" s="35">
+        <v>2</v>
+      </c>
+      <c r="E31" s="38">
+        <v>2</v>
+      </c>
+      <c r="F31" s="39">
+        <v>4</v>
+      </c>
+      <c r="G31" s="42">
+        <v>4</v>
+      </c>
+      <c r="H31" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="33">
+        <v>4</v>
+      </c>
+      <c r="C32" s="34">
+        <v>4</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+      <c r="E32" s="38">
+        <v>2</v>
+      </c>
+      <c r="F32" s="39">
+        <v>5</v>
+      </c>
+      <c r="G32" s="42">
+        <v>2</v>
+      </c>
+      <c r="H32" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>2</v>
+      </c>
+      <c r="B33" s="33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="34">
+        <v>4</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="38">
+        <v>2</v>
+      </c>
+      <c r="F33" s="39">
+        <v>5</v>
+      </c>
+      <c r="G33" s="42">
+        <v>1</v>
+      </c>
+      <c r="H33" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>1</v>
+      </c>
+      <c r="B34" s="33">
+        <v>2</v>
+      </c>
+      <c r="C34" s="34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="35">
+        <v>1</v>
+      </c>
+      <c r="E34" s="38">
+        <v>1</v>
+      </c>
+      <c r="F34" s="39">
+        <v>5</v>
+      </c>
+      <c r="G34" s="42">
+        <v>1</v>
+      </c>
+      <c r="H34" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>1</v>
+      </c>
+      <c r="B35" s="33">
+        <v>4</v>
+      </c>
+      <c r="C35" s="34">
+        <v>3</v>
+      </c>
+      <c r="D35" s="35">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38">
+        <v>2</v>
+      </c>
+      <c r="F35" s="39">
+        <v>2</v>
+      </c>
+      <c r="G35" s="42">
+        <v>2</v>
+      </c>
+      <c r="H35" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>2</v>
+      </c>
+      <c r="B36" s="33">
+        <v>4</v>
+      </c>
+      <c r="C36" s="34">
+        <v>4</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2</v>
+      </c>
+      <c r="F36" s="39">
+        <v>4</v>
+      </c>
+      <c r="G36" s="42">
+        <v>2</v>
+      </c>
+      <c r="H36" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>1</v>
+      </c>
+      <c r="B37" s="33">
+        <v>4</v>
+      </c>
+      <c r="C37" s="34">
+        <v>4</v>
+      </c>
+      <c r="D37" s="35">
+        <v>1</v>
+      </c>
+      <c r="E37" s="38">
+        <v>2</v>
+      </c>
+      <c r="F37" s="39">
+        <v>5</v>
+      </c>
+      <c r="G37" s="42">
+        <v>4</v>
+      </c>
+      <c r="H37" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>2</v>
+      </c>
+      <c r="B38" s="33">
+        <v>3</v>
+      </c>
+      <c r="C38" s="34">
+        <v>4</v>
+      </c>
+      <c r="D38" s="35">
+        <v>2</v>
+      </c>
+      <c r="E38" s="38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="39">
+        <v>3</v>
+      </c>
+      <c r="G38" s="42">
+        <v>2</v>
+      </c>
+      <c r="H38" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>2</v>
+      </c>
+      <c r="B39" s="33">
+        <v>2</v>
+      </c>
+      <c r="C39" s="34">
+        <v>4</v>
+      </c>
+      <c r="D39" s="35">
+        <v>3</v>
+      </c>
+      <c r="E39" s="38">
+        <v>2</v>
+      </c>
+      <c r="F39" s="39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="42">
+        <v>3</v>
+      </c>
+      <c r="H39" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>3</v>
+      </c>
+      <c r="B40" s="33">
+        <v>2</v>
+      </c>
+      <c r="C40" s="34">
+        <v>4</v>
+      </c>
+      <c r="D40" s="35">
+        <v>2</v>
+      </c>
+      <c r="E40" s="38">
+        <v>2</v>
+      </c>
+      <c r="F40" s="39">
+        <v>2</v>
+      </c>
+      <c r="G40" s="42">
+        <v>4</v>
+      </c>
+      <c r="H40" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>3</v>
+      </c>
+      <c r="B41" s="33">
+        <v>4</v>
+      </c>
+      <c r="C41" s="34">
+        <v>4</v>
+      </c>
+      <c r="D41" s="35">
+        <v>4</v>
+      </c>
+      <c r="E41" s="38">
+        <v>4</v>
+      </c>
+      <c r="F41" s="39">
+        <v>2</v>
+      </c>
+      <c r="G41" s="42">
+        <v>3</v>
+      </c>
+      <c r="H41" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>2</v>
+      </c>
+      <c r="B42" s="33">
+        <v>3</v>
+      </c>
+      <c r="C42" s="34">
+        <v>4</v>
+      </c>
+      <c r="D42" s="35">
+        <v>4</v>
+      </c>
+      <c r="E42" s="38">
+        <v>2</v>
+      </c>
+      <c r="F42" s="39">
+        <v>2</v>
+      </c>
+      <c r="G42" s="42">
+        <v>4</v>
+      </c>
+      <c r="H42" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>2</v>
+      </c>
+      <c r="B43" s="33">
+        <v>5</v>
+      </c>
+      <c r="C43" s="34">
+        <v>5</v>
+      </c>
+      <c r="D43" s="35">
+        <v>2</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1</v>
+      </c>
+      <c r="F43" s="39">
+        <v>4</v>
+      </c>
+      <c r="G43" s="42">
+        <v>2</v>
+      </c>
+      <c r="H43" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>3</v>
+      </c>
+      <c r="B44" s="33">
+        <v>2</v>
+      </c>
+      <c r="C44" s="34">
+        <v>2</v>
+      </c>
+      <c r="D44" s="35">
+        <v>4</v>
+      </c>
+      <c r="E44" s="38">
+        <v>4</v>
+      </c>
+      <c r="F44" s="39">
+        <v>2</v>
+      </c>
+      <c r="G44" s="42">
+        <v>5</v>
+      </c>
+      <c r="H44" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>1</v>
+      </c>
+      <c r="B45" s="33">
+        <v>2</v>
+      </c>
+      <c r="C45" s="34">
+        <v>4</v>
+      </c>
+      <c r="D45" s="35">
+        <v>1</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2</v>
+      </c>
+      <c r="F45" s="39">
+        <v>2</v>
+      </c>
+      <c r="G45" s="42">
+        <v>4</v>
+      </c>
+      <c r="H45" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>4</v>
+      </c>
+      <c r="B46" s="33">
+        <v>2</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
+      <c r="D46" s="35">
+        <v>4</v>
+      </c>
+      <c r="E46" s="38">
+        <v>2</v>
+      </c>
+      <c r="F46" s="39">
+        <v>2</v>
+      </c>
+      <c r="G46" s="42">
+        <v>4</v>
+      </c>
+      <c r="H46" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>5</v>
+      </c>
+      <c r="B47" s="33">
+        <v>2</v>
+      </c>
+      <c r="C47" s="34">
+        <v>4</v>
+      </c>
+      <c r="D47" s="35">
+        <v>5</v>
+      </c>
+      <c r="E47" s="38">
+        <v>4</v>
+      </c>
+      <c r="F47" s="39">
+        <v>5</v>
+      </c>
+      <c r="G47" s="42">
+        <v>5</v>
+      </c>
+      <c r="H47" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>2</v>
+      </c>
+      <c r="B48" s="33">
+        <v>3</v>
+      </c>
+      <c r="C48" s="34">
+        <v>5</v>
+      </c>
+      <c r="D48" s="35">
+        <v>2</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1</v>
+      </c>
+      <c r="F48" s="39">
+        <v>4</v>
+      </c>
+      <c r="G48" s="42">
+        <v>2</v>
+      </c>
+      <c r="H48" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>2</v>
+      </c>
+      <c r="B49" s="33">
+        <v>4</v>
+      </c>
+      <c r="C49" s="34">
+        <v>5</v>
+      </c>
+      <c r="D49" s="35">
+        <v>1</v>
+      </c>
+      <c r="E49" s="38">
+        <v>4</v>
+      </c>
+      <c r="F49" s="39">
+        <v>5</v>
+      </c>
+      <c r="G49" s="42">
+        <v>5</v>
+      </c>
+      <c r="H49" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>2</v>
+      </c>
+      <c r="B50" s="33">
+        <v>4</v>
+      </c>
+      <c r="C50" s="34">
+        <v>4</v>
+      </c>
+      <c r="D50" s="35">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38">
+        <v>2</v>
+      </c>
+      <c r="F50" s="39">
+        <v>4</v>
+      </c>
+      <c r="G50" s="42">
+        <v>2</v>
+      </c>
+      <c r="H50" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>1</v>
+      </c>
+      <c r="B51" s="33">
+        <v>3</v>
+      </c>
+      <c r="C51" s="34">
+        <v>2</v>
+      </c>
+      <c r="D51" s="35">
+        <v>1</v>
+      </c>
+      <c r="E51" s="38">
+        <v>3</v>
+      </c>
+      <c r="F51" s="39">
+        <v>4</v>
+      </c>
+      <c r="G51" s="42">
+        <v>2</v>
+      </c>
+      <c r="H51" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>1</v>
+      </c>
+      <c r="B52" s="33">
+        <v>2</v>
+      </c>
+      <c r="C52" s="34">
+        <v>4</v>
+      </c>
+      <c r="D52" s="35">
+        <v>2</v>
+      </c>
+      <c r="E52" s="38">
+        <v>2</v>
+      </c>
+      <c r="F52" s="39">
+        <v>4</v>
+      </c>
+      <c r="G52" s="42">
+        <v>3</v>
+      </c>
+      <c r="H52" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>2</v>
+      </c>
+      <c r="B53" s="33">
+        <v>2</v>
+      </c>
+      <c r="C53" s="34">
+        <v>4</v>
+      </c>
+      <c r="D53" s="35">
+        <v>2</v>
+      </c>
+      <c r="E53" s="38">
+        <v>2</v>
+      </c>
+      <c r="F53" s="39">
+        <v>2</v>
+      </c>
+      <c r="G53" s="42">
+        <v>2</v>
+      </c>
+      <c r="H53" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>2</v>
+      </c>
+      <c r="B54" s="33">
+        <v>2</v>
+      </c>
+      <c r="C54" s="34">
+        <v>2</v>
+      </c>
+      <c r="D54" s="35">
+        <v>2</v>
+      </c>
+      <c r="E54" s="38">
+        <v>1</v>
+      </c>
+      <c r="F54" s="39">
+        <v>3</v>
+      </c>
+      <c r="G54" s="42">
+        <v>3</v>
+      </c>
+      <c r="H54" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>3</v>
+      </c>
+      <c r="B55" s="33">
+        <v>3</v>
+      </c>
+      <c r="C55" s="34">
+        <v>3</v>
+      </c>
+      <c r="D55" s="35">
+        <v>4</v>
+      </c>
+      <c r="E55" s="38">
+        <v>2</v>
+      </c>
+      <c r="F55" s="39">
+        <v>5</v>
+      </c>
+      <c r="G55" s="42">
+        <v>2</v>
+      </c>
+      <c r="H55" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>2</v>
+      </c>
+      <c r="B56" s="33">
+        <v>4</v>
+      </c>
+      <c r="C56" s="34">
+        <v>3</v>
+      </c>
+      <c r="D56" s="35">
+        <v>3</v>
+      </c>
+      <c r="E56" s="38">
+        <v>3</v>
+      </c>
+      <c r="F56" s="39">
+        <v>4</v>
+      </c>
+      <c r="G56" s="42">
+        <v>2</v>
+      </c>
+      <c r="H56" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
+        <v>2</v>
+      </c>
+      <c r="B57" s="33">
+        <v>4</v>
+      </c>
+      <c r="C57" s="34">
+        <v>3</v>
+      </c>
+      <c r="D57" s="35">
+        <v>1</v>
+      </c>
+      <c r="E57" s="38">
+        <v>4</v>
+      </c>
+      <c r="F57" s="39">
+        <v>5</v>
+      </c>
+      <c r="G57" s="42">
+        <v>3</v>
+      </c>
+      <c r="H57" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <v>3</v>
+      </c>
+      <c r="B58" s="33">
+        <v>4</v>
+      </c>
+      <c r="C58" s="34">
+        <v>3</v>
+      </c>
+      <c r="D58" s="35">
+        <v>4</v>
+      </c>
+      <c r="E58" s="38">
+        <v>2</v>
+      </c>
+      <c r="F58" s="39">
+        <v>4</v>
+      </c>
+      <c r="G58" s="42">
+        <v>2</v>
+      </c>
+      <c r="H58" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="32">
+        <v>1</v>
+      </c>
+      <c r="B59" s="33">
+        <v>4</v>
+      </c>
+      <c r="C59" s="34">
+        <v>5</v>
+      </c>
+      <c r="D59" s="35">
+        <v>1</v>
+      </c>
+      <c r="E59" s="38">
+        <v>1</v>
+      </c>
+      <c r="F59" s="39">
+        <v>4</v>
+      </c>
+      <c r="G59" s="42">
+        <v>5</v>
+      </c>
+      <c r="H59" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
+        <v>1</v>
+      </c>
+      <c r="B60" s="33">
+        <v>4</v>
+      </c>
+      <c r="C60" s="34">
+        <v>4</v>
+      </c>
+      <c r="D60" s="35">
+        <v>4</v>
+      </c>
+      <c r="E60" s="38">
+        <v>1</v>
+      </c>
+      <c r="F60" s="39">
+        <v>2</v>
+      </c>
+      <c r="G60" s="42">
+        <v>2</v>
+      </c>
+      <c r="H60" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="32">
+        <v>3</v>
+      </c>
+      <c r="B61" s="33">
+        <v>2</v>
+      </c>
+      <c r="C61" s="34">
+        <v>5</v>
+      </c>
+      <c r="D61" s="35">
+        <v>4</v>
+      </c>
+      <c r="E61" s="38">
+        <v>4</v>
+      </c>
+      <c r="F61" s="39">
+        <v>3</v>
+      </c>
+      <c r="G61" s="42">
+        <v>4</v>
+      </c>
+      <c r="H61" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <v>2</v>
+      </c>
+      <c r="B62" s="33">
+        <v>4</v>
+      </c>
+      <c r="C62" s="34">
+        <v>4</v>
+      </c>
+      <c r="D62" s="35">
+        <v>2</v>
+      </c>
+      <c r="E62" s="38">
+        <v>1</v>
+      </c>
+      <c r="F62" s="39">
+        <v>3</v>
+      </c>
+      <c r="G62" s="42">
+        <v>2</v>
+      </c>
+      <c r="H62" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
+        <v>2</v>
+      </c>
+      <c r="B63" s="33">
+        <v>4</v>
+      </c>
+      <c r="C63" s="34">
+        <v>4</v>
+      </c>
+      <c r="D63" s="35">
+        <v>1</v>
+      </c>
+      <c r="E63" s="38">
+        <v>2</v>
+      </c>
+      <c r="F63" s="39">
+        <v>4</v>
+      </c>
+      <c r="G63" s="42">
+        <v>2</v>
+      </c>
+      <c r="H63" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <f>6-A64</f>
+        <v>4</v>
+      </c>
+      <c r="C64" s="36">
+        <v>4</v>
+      </c>
+      <c r="D64" s="37">
+        <v>3</v>
+      </c>
+      <c r="E64" s="40">
+        <v>2</v>
+      </c>
+      <c r="F64" s="41">
+        <v>4</v>
+      </c>
+      <c r="G64" s="44">
+        <v>2</v>
+      </c>
+      <c r="H64" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B124" si="0">6-A65</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="36">
+        <v>5</v>
+      </c>
+      <c r="D65" s="37">
+        <v>4</v>
+      </c>
+      <c r="E65" s="40">
+        <v>2</v>
+      </c>
+      <c r="F65" s="41">
+        <v>4</v>
+      </c>
+      <c r="G65" s="44">
+        <v>3</v>
+      </c>
+      <c r="H65" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C66" s="36">
+        <v>4</v>
+      </c>
+      <c r="D66" s="37">
+        <v>4</v>
+      </c>
+      <c r="E66" s="40">
+        <v>5</v>
+      </c>
+      <c r="F66" s="41">
+        <v>4</v>
+      </c>
+      <c r="G66" s="44">
+        <v>4</v>
+      </c>
+      <c r="H66" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C67" s="36">
+        <v>5</v>
+      </c>
+      <c r="D67" s="37">
+        <v>4</v>
+      </c>
+      <c r="E67" s="40">
+        <v>2</v>
+      </c>
+      <c r="F67" s="41">
+        <v>2</v>
+      </c>
+      <c r="G67" s="44">
+        <v>3</v>
+      </c>
+      <c r="H67" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C68" s="36">
+        <v>4</v>
+      </c>
+      <c r="D68" s="37">
+        <v>4</v>
+      </c>
+      <c r="E68" s="40">
+        <v>3</v>
+      </c>
+      <c r="F68" s="41">
+        <v>3</v>
+      </c>
+      <c r="G68" s="44">
+        <v>4</v>
+      </c>
+      <c r="H68" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C69" s="36">
+        <v>5</v>
+      </c>
+      <c r="D69" s="37">
+        <v>2</v>
+      </c>
+      <c r="E69" s="40">
+        <v>2</v>
+      </c>
+      <c r="F69" s="41">
+        <v>4</v>
+      </c>
+      <c r="G69" s="44">
+        <v>2</v>
+      </c>
+      <c r="H69" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C70" s="36">
+        <v>4</v>
+      </c>
+      <c r="D70" s="37">
+        <v>4</v>
+      </c>
+      <c r="E70" s="40">
+        <v>2</v>
+      </c>
+      <c r="F70" s="41">
+        <v>2</v>
+      </c>
+      <c r="G70" s="44">
+        <v>3</v>
+      </c>
+      <c r="H70" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C71" s="36">
+        <v>5</v>
+      </c>
+      <c r="D71" s="37">
+        <v>2</v>
+      </c>
+      <c r="E71" s="40">
+        <v>2</v>
+      </c>
+      <c r="F71" s="41">
+        <v>4</v>
+      </c>
+      <c r="G71" s="44">
+        <v>5</v>
+      </c>
+      <c r="H71" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C72" s="36">
+        <v>5</v>
+      </c>
+      <c r="D72" s="37">
+        <v>4</v>
+      </c>
+      <c r="E72" s="40">
+        <v>2</v>
+      </c>
+      <c r="F72" s="41">
+        <v>4</v>
+      </c>
+      <c r="G72" s="44">
+        <v>4</v>
+      </c>
+      <c r="H72" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C73" s="36">
+        <v>3</v>
+      </c>
+      <c r="D73" s="37">
+        <v>3</v>
+      </c>
+      <c r="E73" s="40">
+        <v>2</v>
+      </c>
+      <c r="F73" s="41">
+        <v>4</v>
+      </c>
+      <c r="G73" s="44">
+        <v>1</v>
+      </c>
+      <c r="H73" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C74" s="36">
+        <v>3</v>
+      </c>
+      <c r="D74" s="37">
+        <v>3</v>
+      </c>
+      <c r="E74" s="40">
+        <v>2</v>
+      </c>
+      <c r="F74" s="41">
+        <v>4</v>
+      </c>
+      <c r="G74" s="44">
+        <v>4</v>
+      </c>
+      <c r="H74" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C75" s="36">
+        <v>4</v>
+      </c>
+      <c r="D75" s="37">
+        <v>2</v>
+      </c>
+      <c r="E75" s="40">
+        <v>4</v>
+      </c>
+      <c r="F75" s="41">
+        <v>4</v>
+      </c>
+      <c r="G75" s="44">
+        <v>4</v>
+      </c>
+      <c r="H75" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C76" s="36">
+        <v>4</v>
+      </c>
+      <c r="D76" s="37">
+        <v>2</v>
+      </c>
+      <c r="E76" s="40">
+        <v>1</v>
+      </c>
+      <c r="F76" s="41">
+        <v>5</v>
+      </c>
+      <c r="G76" s="44">
+        <v>2</v>
+      </c>
+      <c r="H76" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C77" s="36">
+        <v>5</v>
+      </c>
+      <c r="D77" s="37">
+        <v>2</v>
+      </c>
+      <c r="E77" s="40">
+        <v>2</v>
+      </c>
+      <c r="F77" s="41">
+        <v>5</v>
+      </c>
+      <c r="G77" s="44">
+        <v>4</v>
+      </c>
+      <c r="H77" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C78" s="36">
+        <v>3</v>
+      </c>
+      <c r="D78" s="37">
+        <v>2</v>
+      </c>
+      <c r="E78" s="40">
+        <v>1</v>
+      </c>
+      <c r="F78" s="41">
+        <v>3</v>
+      </c>
+      <c r="G78" s="44">
+        <v>5</v>
+      </c>
+      <c r="H78" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C79" s="36">
+        <v>4</v>
+      </c>
+      <c r="D79" s="37">
+        <v>4</v>
+      </c>
+      <c r="E79" s="40">
+        <v>2</v>
+      </c>
+      <c r="F79" s="41">
+        <v>3</v>
+      </c>
+      <c r="G79" s="44">
+        <v>4</v>
+      </c>
+      <c r="H79" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C80" s="36">
+        <v>4</v>
+      </c>
+      <c r="D80" s="37">
+        <v>4</v>
+      </c>
+      <c r="E80" s="40">
+        <v>1</v>
+      </c>
+      <c r="F80" s="41">
+        <v>5</v>
+      </c>
+      <c r="G80" s="44">
+        <v>2</v>
+      </c>
+      <c r="H80" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C81" s="36">
+        <v>4</v>
+      </c>
+      <c r="D81" s="37">
+        <v>4</v>
+      </c>
+      <c r="E81" s="40">
+        <v>4</v>
+      </c>
+      <c r="F81" s="41">
+        <v>2</v>
+      </c>
+      <c r="G81" s="44">
+        <v>4</v>
+      </c>
+      <c r="H81" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C82" s="36">
+        <v>3</v>
+      </c>
+      <c r="D82" s="37">
+        <v>3</v>
+      </c>
+      <c r="E82" s="40">
+        <v>5</v>
+      </c>
+      <c r="F82" s="41">
+        <v>4</v>
+      </c>
+      <c r="G82" s="44">
+        <v>3</v>
+      </c>
+      <c r="H82" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C83" s="36">
+        <v>4</v>
+      </c>
+      <c r="D83" s="37">
+        <v>4</v>
+      </c>
+      <c r="E83" s="40">
+        <v>2</v>
+      </c>
+      <c r="F83" s="41">
+        <v>4</v>
+      </c>
+      <c r="G83" s="44">
+        <v>2</v>
+      </c>
+      <c r="H83" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C84" s="36">
+        <v>4</v>
+      </c>
+      <c r="D84" s="37">
+        <v>4</v>
+      </c>
+      <c r="E84" s="40">
+        <v>3</v>
+      </c>
+      <c r="F84" s="41">
+        <v>4</v>
+      </c>
+      <c r="G84" s="44">
+        <v>3</v>
+      </c>
+      <c r="H84" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C85" s="36">
+        <v>4</v>
+      </c>
+      <c r="D85" s="37">
+        <v>2</v>
+      </c>
+      <c r="E85" s="40">
+        <v>3</v>
+      </c>
+      <c r="F85" s="41">
+        <v>3</v>
+      </c>
+      <c r="G85" s="44">
+        <v>3</v>
+      </c>
+      <c r="H85" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C86" s="36">
+        <v>4</v>
+      </c>
+      <c r="D86" s="37">
+        <v>5</v>
+      </c>
+      <c r="E86" s="40">
+        <v>3</v>
+      </c>
+      <c r="F86" s="41">
+        <v>4</v>
+      </c>
+      <c r="G86" s="44">
+        <v>5</v>
+      </c>
+      <c r="H86" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C87" s="36">
+        <v>2</v>
+      </c>
+      <c r="D87" s="37">
+        <v>4</v>
+      </c>
+      <c r="E87" s="40">
+        <v>3</v>
+      </c>
+      <c r="F87" s="41">
+        <v>4</v>
+      </c>
+      <c r="G87" s="44">
+        <v>2</v>
+      </c>
+      <c r="H87" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C88" s="36">
+        <v>4</v>
+      </c>
+      <c r="D88" s="37">
+        <v>4</v>
+      </c>
+      <c r="E88" s="40">
+        <v>1</v>
+      </c>
+      <c r="F88" s="41">
+        <v>2</v>
+      </c>
+      <c r="G88" s="44">
+        <v>3</v>
+      </c>
+      <c r="H88" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C89" s="36">
+        <v>5</v>
+      </c>
+      <c r="D89" s="37">
+        <v>4</v>
+      </c>
+      <c r="E89" s="40">
+        <v>2</v>
+      </c>
+      <c r="F89" s="41">
+        <v>3</v>
+      </c>
+      <c r="G89" s="44">
+        <v>2</v>
+      </c>
+      <c r="H89" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C90" s="36">
+        <v>3</v>
+      </c>
+      <c r="D90" s="37">
+        <v>4</v>
+      </c>
+      <c r="E90" s="40">
+        <v>3</v>
+      </c>
+      <c r="F90" s="41">
+        <v>4</v>
+      </c>
+      <c r="G90" s="44">
+        <v>3</v>
+      </c>
+      <c r="H90" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C91" s="36">
+        <v>4</v>
+      </c>
+      <c r="D91" s="37">
+        <v>4</v>
+      </c>
+      <c r="E91" s="40">
+        <v>2</v>
+      </c>
+      <c r="F91" s="41">
+        <v>4</v>
+      </c>
+      <c r="G91" s="44">
+        <v>2</v>
+      </c>
+      <c r="H91" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C92" s="36">
+        <v>4</v>
+      </c>
+      <c r="D92" s="37">
+        <v>3</v>
+      </c>
+      <c r="E92" s="40">
+        <v>2</v>
+      </c>
+      <c r="F92" s="41">
+        <v>4</v>
+      </c>
+      <c r="G92" s="44">
+        <v>4</v>
+      </c>
+      <c r="H92" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C93" s="36">
+        <v>4</v>
+      </c>
+      <c r="D93" s="37">
+        <v>2</v>
+      </c>
+      <c r="E93" s="40">
+        <v>2</v>
+      </c>
+      <c r="F93" s="41">
+        <v>5</v>
+      </c>
+      <c r="G93" s="44">
+        <v>4</v>
+      </c>
+      <c r="H93" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C94" s="36">
+        <v>4</v>
+      </c>
+      <c r="D94" s="37">
+        <v>1</v>
+      </c>
+      <c r="E94" s="40">
+        <v>2</v>
+      </c>
+      <c r="F94" s="41">
+        <v>5</v>
+      </c>
+      <c r="G94" s="44">
+        <v>1</v>
+      </c>
+      <c r="H94" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C95" s="36">
+        <v>5</v>
+      </c>
+      <c r="D95" s="37">
+        <v>1</v>
+      </c>
+      <c r="E95" s="40">
+        <v>1</v>
+      </c>
+      <c r="F95" s="41">
+        <v>4</v>
+      </c>
+      <c r="G95" s="44">
+        <v>1</v>
+      </c>
+      <c r="H95" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C96" s="36">
+        <v>5</v>
+      </c>
+      <c r="D96" s="37">
+        <v>4</v>
+      </c>
+      <c r="E96" s="40">
+        <v>2</v>
+      </c>
+      <c r="F96" s="41">
+        <v>2</v>
+      </c>
+      <c r="G96" s="44">
+        <v>3</v>
+      </c>
+      <c r="H96" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C97" s="36">
+        <v>4</v>
+      </c>
+      <c r="D97" s="37">
+        <v>2</v>
+      </c>
+      <c r="E97" s="40">
+        <v>2</v>
+      </c>
+      <c r="F97" s="41">
+        <v>2</v>
+      </c>
+      <c r="G97" s="44">
+        <v>2</v>
+      </c>
+      <c r="H97" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C98" s="36">
+        <v>4</v>
+      </c>
+      <c r="D98" s="37">
+        <v>2</v>
+      </c>
+      <c r="E98" s="40">
+        <v>4</v>
+      </c>
+      <c r="F98" s="41">
+        <v>5</v>
+      </c>
+      <c r="G98" s="44">
+        <v>4</v>
+      </c>
+      <c r="H98" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C99" s="36">
+        <v>5</v>
+      </c>
+      <c r="D99" s="37">
+        <v>3</v>
+      </c>
+      <c r="E99" s="40">
+        <v>2</v>
+      </c>
+      <c r="F99" s="41">
+        <v>4</v>
+      </c>
+      <c r="G99" s="44">
+        <v>2</v>
+      </c>
+      <c r="H99" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C100" s="36">
+        <v>4</v>
+      </c>
+      <c r="D100" s="37">
+        <v>4</v>
+      </c>
+      <c r="E100" s="40">
+        <v>3</v>
+      </c>
+      <c r="F100" s="41">
+        <v>3</v>
+      </c>
+      <c r="G100" s="44">
+        <v>3</v>
+      </c>
+      <c r="H100" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C101" s="36">
+        <v>4</v>
+      </c>
+      <c r="D101" s="37">
+        <v>4</v>
+      </c>
+      <c r="E101" s="40">
+        <v>2</v>
+      </c>
+      <c r="F101" s="41">
+        <v>3</v>
+      </c>
+      <c r="G101" s="44">
+        <v>4</v>
+      </c>
+      <c r="H101" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C102" s="36">
+        <v>4</v>
+      </c>
+      <c r="D102" s="37">
+        <v>4</v>
+      </c>
+      <c r="E102" s="40">
+        <v>4</v>
+      </c>
+      <c r="F102" s="41">
+        <v>4</v>
+      </c>
+      <c r="G102" s="44">
+        <v>4</v>
+      </c>
+      <c r="H102" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C103" s="36">
+        <v>4</v>
+      </c>
+      <c r="D103" s="37">
+        <v>4</v>
+      </c>
+      <c r="E103" s="40">
+        <v>2</v>
+      </c>
+      <c r="F103" s="41">
+        <v>4</v>
+      </c>
+      <c r="G103" s="44">
+        <v>4</v>
+      </c>
+      <c r="H103" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C104" s="36">
+        <v>1</v>
+      </c>
+      <c r="D104" s="37">
+        <v>3</v>
+      </c>
+      <c r="E104" s="40">
+        <v>1</v>
+      </c>
+      <c r="F104" s="41">
+        <v>5</v>
+      </c>
+      <c r="G104" s="44">
+        <v>2</v>
+      </c>
+      <c r="H104" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C105" s="36">
+        <v>1</v>
+      </c>
+      <c r="D105" s="37">
+        <v>4</v>
+      </c>
+      <c r="E105" s="40">
+        <v>4</v>
+      </c>
+      <c r="F105" s="41">
+        <v>1</v>
+      </c>
+      <c r="G105" s="44">
+        <v>5</v>
+      </c>
+      <c r="H105" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C106" s="36">
+        <v>4</v>
+      </c>
+      <c r="D106" s="37">
+        <v>4</v>
+      </c>
+      <c r="E106" s="40">
+        <v>2</v>
+      </c>
+      <c r="F106" s="41">
+        <v>4</v>
+      </c>
+      <c r="G106" s="44">
+        <v>4</v>
+      </c>
+      <c r="H106" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C107" s="36">
+        <v>4</v>
+      </c>
+      <c r="D107" s="37">
+        <v>4</v>
+      </c>
+      <c r="E107" s="40">
+        <v>5</v>
+      </c>
+      <c r="F107" s="41">
+        <v>1</v>
+      </c>
+      <c r="G107" s="44">
+        <v>4</v>
+      </c>
+      <c r="H107" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C108" s="36">
+        <v>2</v>
+      </c>
+      <c r="D108" s="37">
+        <v>5</v>
+      </c>
+      <c r="E108" s="40">
+        <v>5</v>
+      </c>
+      <c r="F108" s="41">
+        <v>4</v>
+      </c>
+      <c r="G108" s="44">
+        <v>5</v>
+      </c>
+      <c r="H108" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C109" s="36">
+        <v>5</v>
+      </c>
+      <c r="D109" s="37">
+        <v>4</v>
+      </c>
+      <c r="E109" s="40">
+        <v>2</v>
+      </c>
+      <c r="F109" s="41">
+        <v>4</v>
+      </c>
+      <c r="G109" s="44">
+        <v>2</v>
+      </c>
+      <c r="H109" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C110" s="36">
+        <v>5</v>
+      </c>
+      <c r="D110" s="37">
+        <v>2</v>
+      </c>
+      <c r="E110" s="40">
+        <v>2</v>
+      </c>
+      <c r="F110" s="41">
+        <v>4</v>
+      </c>
+      <c r="G110" s="44">
+        <v>5</v>
+      </c>
+      <c r="H110" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C111" s="36">
+        <v>4</v>
+      </c>
+      <c r="D111" s="37">
+        <v>2</v>
+      </c>
+      <c r="E111" s="40">
+        <v>2</v>
+      </c>
+      <c r="F111" s="41">
+        <v>4</v>
+      </c>
+      <c r="G111" s="44">
+        <v>2</v>
+      </c>
+      <c r="H111" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C112" s="36">
+        <v>4</v>
+      </c>
+      <c r="D112" s="37">
+        <v>3</v>
+      </c>
+      <c r="E112" s="40">
+        <v>3</v>
+      </c>
+      <c r="F112" s="41">
+        <v>4</v>
+      </c>
+      <c r="G112" s="44">
+        <v>2</v>
+      </c>
+      <c r="H112" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C113" s="36">
+        <v>4</v>
+      </c>
+      <c r="D113" s="37">
+        <v>4</v>
+      </c>
+      <c r="E113" s="40">
+        <v>2</v>
+      </c>
+      <c r="F113" s="41">
+        <v>4</v>
+      </c>
+      <c r="G113" s="44">
+        <v>3</v>
+      </c>
+      <c r="H113" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C114" s="36">
+        <v>4</v>
+      </c>
+      <c r="D114" s="37">
+        <v>4</v>
+      </c>
+      <c r="E114" s="40">
+        <v>2</v>
+      </c>
+      <c r="F114" s="41">
+        <v>4</v>
+      </c>
+      <c r="G114" s="44">
+        <v>2</v>
+      </c>
+      <c r="H114" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C115" s="36">
+        <v>4</v>
+      </c>
+      <c r="D115" s="37">
+        <v>4</v>
+      </c>
+      <c r="E115" s="40">
+        <v>3</v>
+      </c>
+      <c r="F115" s="41">
+        <v>4</v>
+      </c>
+      <c r="G115" s="44">
+        <v>2</v>
+      </c>
+      <c r="H115" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C116" s="36">
+        <v>3</v>
+      </c>
+      <c r="D116" s="37">
+        <v>2</v>
+      </c>
+      <c r="E116" s="40">
+        <v>3</v>
+      </c>
+      <c r="F116" s="41">
+        <v>4</v>
+      </c>
+      <c r="G116" s="44">
+        <v>4</v>
+      </c>
+      <c r="H116" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C117" s="36">
+        <v>4</v>
+      </c>
+      <c r="D117" s="37">
+        <v>4</v>
+      </c>
+      <c r="E117" s="40">
+        <v>2</v>
+      </c>
+      <c r="F117" s="41">
+        <v>4</v>
+      </c>
+      <c r="G117" s="44">
+        <v>2</v>
+      </c>
+      <c r="H117" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C118" s="36">
+        <v>1</v>
+      </c>
+      <c r="D118" s="37">
+        <v>2</v>
+      </c>
+      <c r="E118" s="40">
+        <v>1</v>
+      </c>
+      <c r="F118" s="41">
+        <v>5</v>
+      </c>
+      <c r="G118" s="44">
+        <v>4</v>
+      </c>
+      <c r="H118" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C119" s="36">
+        <v>3</v>
+      </c>
+      <c r="D119" s="37">
+        <v>4</v>
+      </c>
+      <c r="E119" s="40">
+        <v>3</v>
+      </c>
+      <c r="F119" s="41">
+        <v>2</v>
+      </c>
+      <c r="G119" s="44">
+        <v>4</v>
+      </c>
+      <c r="H119" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C120" s="36">
+        <v>5</v>
+      </c>
+      <c r="D120" s="37">
+        <v>2</v>
+      </c>
+      <c r="E120" s="40">
+        <v>1</v>
+      </c>
+      <c r="F120" s="41">
+        <v>4</v>
+      </c>
+      <c r="G120" s="44">
+        <v>5</v>
+      </c>
+      <c r="H120" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C121" s="36">
+        <v>4</v>
+      </c>
+      <c r="D121" s="37">
+        <v>4</v>
+      </c>
+      <c r="E121" s="40">
+        <v>1</v>
+      </c>
+      <c r="F121" s="41">
+        <v>4</v>
+      </c>
+      <c r="G121" s="44">
+        <v>2</v>
+      </c>
+      <c r="H121" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C122" s="36">
+        <v>4</v>
+      </c>
+      <c r="D122" s="37">
+        <v>4</v>
+      </c>
+      <c r="E122" s="40">
+        <v>4</v>
+      </c>
+      <c r="F122" s="41">
+        <v>3</v>
+      </c>
+      <c r="G122" s="44">
+        <v>2</v>
+      </c>
+      <c r="H122" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C123" s="36">
+        <v>4</v>
+      </c>
+      <c r="D123" s="37">
+        <v>2</v>
+      </c>
+      <c r="E123" s="40">
+        <v>2</v>
+      </c>
+      <c r="F123" s="41">
+        <v>4</v>
+      </c>
+      <c r="G123" s="44">
+        <v>2</v>
+      </c>
+      <c r="H123" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C124" s="36">
+        <v>4</v>
+      </c>
+      <c r="D124" s="37">
+        <v>2</v>
+      </c>
+      <c r="E124" s="40">
+        <v>3</v>
+      </c>
+      <c r="F124" s="41">
+        <v>4</v>
+      </c>
+      <c r="G124" s="44">
+        <v>2</v>
+      </c>
+      <c r="H124" s="45">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>